--- a/1toolConverter_local/backend/cefa.xlsx
+++ b/1toolConverter_local/backend/cefa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD215"/>
+  <dimension ref="A1:AD207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -591,15 +591,19 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>NIVEL_DEPÓSITO</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>CONTROL_AGUA</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>StandBy=0 / AUTO=1</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -607,7 +611,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -621,9 +625,7 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -693,12 +695,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>SP_PRESION_BOMBAS</t>
+          <t>NIVEL_DEPÓSITO</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -709,7 +711,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -723,9 +725,7 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S3" t="inlineStr"/>
@@ -795,12 +795,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SP_PRESIÓN_ENFRIADORAS</t>
+          <t>SP_PRESION_BOMBAS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -811,7 +811,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -825,9 +825,7 @@
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -897,12 +895,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>SP_FRIO</t>
+          <t>SP_PRESIÓN_ENFRIADORAS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
@@ -913,7 +911,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -927,9 +925,7 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -999,12 +995,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SP_REAJUSTE_FRIO</t>
+          <t>SP_FRIO</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
@@ -1015,7 +1011,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -1029,9 +1025,7 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1101,12 +1095,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>SP_ALARMA_PRESIÓN_LLENADO</t>
+          <t>SP_REAJUSTE_FRIO</t>
         </is>
       </c>
       <c r="D7" t="inlineStr"/>
@@ -1117,7 +1111,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1131,9 +1125,7 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1203,12 +1195,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>NIVEL_MAX_DEPÓSITO</t>
+          <t>SP_ALARMA_PRESIÓN_LLENADO</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
@@ -1219,7 +1211,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -1233,9 +1225,7 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1305,12 +1295,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>NIVEL_INICIO_MARCHA</t>
+          <t>NIVEL_MAX_DEPÓSITO</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -1321,7 +1311,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1335,9 +1325,7 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1407,12 +1395,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>14</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>NIVEL_DESACT_LLENADO</t>
+          <t>NIVEL_INICIO_MARCHA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
@@ -1423,7 +1411,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -1437,9 +1425,7 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1509,12 +1495,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>NIVEL_ACT_LLENADO</t>
+          <t>NIVEL_DESACT_LLENADO</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
@@ -1525,7 +1511,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -1539,9 +1525,7 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1611,12 +1595,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>18</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>NIVEL MINIMO</t>
+          <t>NIVEL_ACT_LLENADO</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
@@ -1627,7 +1611,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1641,9 +1625,7 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1713,12 +1695,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>20</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>P_DIFF_P8P7</t>
+          <t>NIVEL MINIMO</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1729,7 +1711,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -1743,9 +1725,7 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1815,12 +1795,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>P_DIFF_P9P10</t>
+          <t>P_DIFF_P8P7</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1831,7 +1811,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1845,9 +1825,7 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1917,12 +1895,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>24</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>P_DIFF_P4P3</t>
+          <t>P_DIFF_P9P10</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1933,7 +1911,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -1947,9 +1925,7 @@
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -2019,12 +1995,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>P_DIFF_P5P6</t>
+          <t>P_DIFF_P4P3</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -2035,7 +2011,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -2049,9 +2025,7 @@
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -2121,12 +2095,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SP_AVISO_P_DIFF_INTERCAMBIADOR</t>
+          <t>P_DIFF_P5P6</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -2137,7 +2111,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2151,9 +2125,7 @@
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -2223,12 +2195,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SP_ALARMA_P_DIFF_INTERCAMBIADOR</t>
+          <t>SP_AVISO_P_DIFF_INTERCAMBIADOR</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -2239,7 +2211,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -2253,9 +2225,7 @@
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2325,12 +2295,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TPO_ALARMA_P_DIFF_INTERCAMBIADOR</t>
+          <t>SP_ALARMA_P_DIFF_INTERCAMBIADOR</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -2341,7 +2311,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -2355,9 +2325,7 @@
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2427,12 +2395,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>P_DIFF_P11P9</t>
+          <t>TPO_ALARMA_P_DIFF_INTERCAMBIADOR</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -2443,7 +2411,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -2457,9 +2425,7 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2529,12 +2495,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>36</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>P_DIFF_P11P5</t>
+          <t>P_DIFF_P11P9</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -2545,7 +2511,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -2559,9 +2525,7 @@
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2631,12 +2595,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>P_DIFF_P12P8</t>
+          <t>P_DIFF_P11P5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -2647,7 +2611,7 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -2661,9 +2625,7 @@
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2733,12 +2695,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>42</t>
+          <t>40</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>P_DIFF_P12P4</t>
+          <t>P_DIFF_P12P8</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
@@ -2749,7 +2711,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -2763,9 +2725,7 @@
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2835,12 +2795,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>44</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>SP_AVISO_P_DIFF_FILTRO_INTERCAMBIADOR</t>
+          <t>P_DIFF_P12P4</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
@@ -2851,7 +2811,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -2865,9 +2825,7 @@
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2937,12 +2895,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SP_ALARMA_P_DIFF_FILTRO_INTERCAMBIADOR</t>
+          <t>SP_AVISO_P_DIFF_FILTRO_INTERCAMBIADOR</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -2953,7 +2911,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -2967,9 +2925,7 @@
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -3039,12 +2995,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>48</t>
+          <t>46</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TPO_ALARMA_P_DIFF_FILTRO_INTERCAMBIADOR</t>
+          <t>SP_ALARMA_P_DIFF_FILTRO_INTERCAMBIADOR</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
@@ -3055,7 +3011,7 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -3069,9 +3025,7 @@
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
         <v>0</v>
       </c>
@@ -3141,12 +3095,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>48</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PROCESO_AIRE</t>
+          <t>TPO_ALARMA_P_DIFF_FILTRO_INTERCAMBIADOR</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -3157,7 +3111,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AGUA</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3171,9 +3125,7 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -3193,7 +3145,11 @@
       <c r="Q27" t="n">
         <v>0</v>
       </c>
-      <c r="R27" t="inlineStr"/>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr">
         <is>
@@ -3255,7 +3211,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3269,9 +3225,7 @@
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -3357,7 +3311,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3371,9 +3325,7 @@
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3459,7 +3411,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3473,9 +3425,7 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3561,7 +3511,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3575,9 +3525,7 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -3663,7 +3611,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
@@ -3677,9 +3625,7 @@
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3765,7 +3711,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -3779,9 +3725,7 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3867,7 +3811,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3881,9 +3825,7 @@
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3969,7 +3911,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
@@ -3983,9 +3925,7 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -4071,7 +4011,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
@@ -4085,9 +4025,7 @@
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -4173,7 +4111,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -4187,9 +4125,7 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -4275,7 +4211,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
@@ -4289,9 +4225,7 @@
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -4377,7 +4311,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_AIRE</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
@@ -4391,9 +4325,7 @@
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4468,7 +4400,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PROCESO_GENERAL</t>
+          <t>RESERVA_1</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
@@ -4479,7 +4411,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_GENERAL</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -4493,9 +4425,7 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -4515,7 +4445,11 @@
       <c r="Q40" t="n">
         <v>0</v>
       </c>
-      <c r="R40" t="inlineStr"/>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr">
         <is>
@@ -4561,12 +4495,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>73</t>
+          <t>75</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>RESERVA_1</t>
+          <t>RESERVA_2</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
@@ -4577,7 +4511,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_GENERAL</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
@@ -4591,9 +4525,7 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -4663,12 +4595,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>77</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>RESERVA_2</t>
+          <t>RESERVA_3</t>
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
@@ -4679,7 +4611,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>PROCESO_GENERAL</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -4693,9 +4625,7 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
         <v>0</v>
       </c>
@@ -4765,12 +4695,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>77</t>
+          <t>79</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>RESERVA_3</t>
+          <t>COMPRESOR_1</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
@@ -4781,7 +4711,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -4795,9 +4725,7 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -4819,7 +4747,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -4867,12 +4795,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>80</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>CONTROL_EQUIPOS</t>
+          <t>COMPRESOR_2</t>
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
@@ -4883,7 +4811,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4897,9 +4825,7 @@
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -4919,7 +4845,11 @@
       <c r="Q44" t="n">
         <v>0</v>
       </c>
-      <c r="R44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S44" t="inlineStr"/>
       <c r="T44" t="inlineStr">
         <is>
@@ -4965,12 +4895,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>79</t>
+          <t>81</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>COMPRESOR_1</t>
+          <t>SECADOR_1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
@@ -4981,7 +4911,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -4995,9 +4925,7 @@
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
         <v>0</v>
       </c>
@@ -5067,12 +4995,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>82</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>COMPRESOR_2</t>
+          <t>SECADOR_2</t>
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
@@ -5083,7 +5011,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5097,9 +5025,7 @@
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -5169,12 +5095,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>81</t>
+          <t>83</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>SECADOR_1</t>
+          <t>ENFRIADORA_1</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
@@ -5185,7 +5111,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -5199,9 +5125,7 @@
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -5271,12 +5195,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>84</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>SECADOR_2</t>
+          <t>ENFRIADORA_2</t>
         </is>
       </c>
       <c r="D48" t="inlineStr"/>
@@ -5287,7 +5211,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
@@ -5301,9 +5225,7 @@
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
         <v>0</v>
       </c>
@@ -5373,12 +5295,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>85</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ENFRIADORA_1</t>
+          <t>BOMBA_1</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
@@ -5389,7 +5311,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -5403,9 +5325,7 @@
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
         <v>0</v>
       </c>
@@ -5475,12 +5395,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>84</t>
+          <t>86</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ENFRIADORA_2</t>
+          <t>BOMBA_2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
@@ -5491,7 +5411,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -5505,9 +5425,7 @@
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
         <v>0</v>
       </c>
@@ -5577,12 +5495,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>85</t>
+          <t>87</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>BOMBA_1</t>
+          <t>BOMBA_3</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
@@ -5593,7 +5511,7 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
@@ -5607,9 +5525,7 @@
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -5679,12 +5595,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>86</t>
+          <t>88</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>BOMBA_2</t>
+          <t>BOMBA_4</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
@@ -5695,7 +5611,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -5709,9 +5625,7 @@
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -5781,12 +5695,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>89</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BOMBA_3</t>
+          <t>BOMBA_5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
@@ -5797,7 +5711,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -5811,9 +5725,7 @@
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -5883,12 +5795,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>88</t>
+          <t>90</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>BOMBA_4</t>
+          <t>BOMBA_6</t>
         </is>
       </c>
       <c r="D54" t="inlineStr"/>
@@ -5899,7 +5811,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -5913,9 +5825,7 @@
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
         <v>0</v>
       </c>
@@ -5985,12 +5895,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>89</t>
+          <t>91</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>BOMBA_5</t>
+          <t>BOMBA_7</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
@@ -6001,7 +5911,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -6015,9 +5925,7 @@
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
         <v>0</v>
       </c>
@@ -6087,12 +5995,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>92</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>BOMBA_6</t>
+          <t>VENTILACION_AMBIENTE</t>
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
@@ -6103,7 +6011,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -6117,9 +6025,7 @@
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -6189,12 +6095,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>91</t>
+          <t>93</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>BOMBA_7</t>
+          <t>ENFRIADORA_3</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
@@ -6205,7 +6111,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6219,9 +6125,7 @@
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
         <v>0</v>
       </c>
@@ -6291,12 +6195,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>92</t>
+          <t>94</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>VENTILACION_AMBIENTE</t>
+          <t>ENFRIADORA_4</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
@@ -6307,7 +6211,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -6321,9 +6225,7 @@
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -6393,12 +6295,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>95</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>ENFRIADORA_3</t>
+          <t>COMPUERTA_1</t>
         </is>
       </c>
       <c r="D59" t="inlineStr"/>
@@ -6409,7 +6311,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -6423,9 +6325,7 @@
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
         <v>0</v>
       </c>
@@ -6495,12 +6395,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>94</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ENFRIADORA_4</t>
+          <t>COMPUERTA_2</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
@@ -6511,7 +6411,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -6525,9 +6425,7 @@
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
         <v>0</v>
       </c>
@@ -6597,12 +6495,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>95</t>
+          <t>97</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>COMPUERTA_1</t>
+          <t>COMPUERTA_3</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
@@ -6613,7 +6511,7 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
@@ -6627,9 +6525,7 @@
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
         <v>0</v>
       </c>
@@ -6699,12 +6595,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>98</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>COMPUERTA_2</t>
+          <t>COMPUERTA_4</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
@@ -6715,7 +6611,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -6729,9 +6625,7 @@
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -6801,12 +6695,12 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>97</t>
+          <t>99</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>COMPUERTA_3</t>
+          <t>INTERCAMBIADOR_1_1</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
@@ -6817,7 +6711,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -6831,9 +6725,7 @@
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
         <v>0</v>
       </c>
@@ -6903,12 +6795,12 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>98</t>
+          <t>100</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>COMPUERTA_4</t>
+          <t>INTERCAMBIADOR_1_2</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
@@ -6919,7 +6811,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -6933,9 +6825,7 @@
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -7005,12 +6895,12 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>99</t>
+          <t>101</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_1</t>
+          <t>INTERCAMBIADOR_2_1</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
@@ -7021,7 +6911,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -7035,9 +6925,7 @@
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
         <v>0</v>
       </c>
@@ -7107,12 +6995,12 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>102</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_2</t>
+          <t>INTERCAMBIADOR_2_2</t>
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
@@ -7123,7 +7011,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
@@ -7137,9 +7025,7 @@
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
         <v>0</v>
       </c>
@@ -7209,12 +7095,12 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>103</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_1</t>
+          <t>VALVULA_SECADOR_1</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
@@ -7225,7 +7111,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -7239,9 +7125,7 @@
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
         <v>0</v>
       </c>
@@ -7311,12 +7195,12 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>102</t>
+          <t>104</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_2</t>
+          <t>VALVULA_SECADOR_2</t>
         </is>
       </c>
       <c r="D68" t="inlineStr"/>
@@ -7327,7 +7211,7 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -7341,9 +7225,7 @@
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
         <v>0</v>
       </c>
@@ -7413,12 +7295,12 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>105</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_1</t>
+          <t>VALVULA_LLENADO</t>
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
@@ -7429,7 +7311,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -7443,9 +7325,7 @@
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
         <v>0</v>
       </c>
@@ -7515,12 +7395,12 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>106</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_2</t>
+          <t>RESERVA_1</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
@@ -7531,7 +7411,7 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -7545,9 +7425,7 @@
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
         <v>0</v>
       </c>
@@ -7617,12 +7495,12 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>107</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>VALVULA_LLENADO</t>
+          <t>RESERVA_2</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
@@ -7633,7 +7511,7 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -7647,9 +7525,7 @@
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
         <v>0</v>
       </c>
@@ -7719,12 +7595,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>108</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>RESERVA_1</t>
+          <t>RESERVA_3</t>
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
@@ -7735,7 +7611,7 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
@@ -7749,9 +7625,7 @@
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
         <v>0</v>
       </c>
@@ -7821,12 +7695,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>109</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>RESERVA_2</t>
+          <t>RESERVA_4</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
@@ -7837,7 +7711,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>CONTROL_EQUIPOS</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -7851,9 +7725,7 @@
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
         <v>0</v>
       </c>
@@ -7923,12 +7795,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>110</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RESERVA_3</t>
+          <t>PRESION_P1</t>
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
@@ -7939,7 +7811,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
@@ -7953,9 +7825,7 @@
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
         <v>0</v>
       </c>
@@ -7977,7 +7847,7 @@
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S74" t="inlineStr"/>
@@ -8025,12 +7895,12 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>112</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>RESERVA_4</t>
+          <t>PRESION_P2</t>
         </is>
       </c>
       <c r="D75" t="inlineStr"/>
@@ -8041,7 +7911,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -8055,9 +7925,7 @@
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
         <v>0</v>
       </c>
@@ -8079,7 +7947,7 @@
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="S75" t="inlineStr"/>
@@ -8127,12 +7995,12 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>114</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ANALOGICAS</t>
+          <t>TEMP_AMBIENTE_T1</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
@@ -8143,7 +8011,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -8157,9 +8025,7 @@
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
         <v>0</v>
       </c>
@@ -8179,7 +8045,11 @@
       <c r="Q76" t="n">
         <v>0</v>
       </c>
-      <c r="R76" t="inlineStr"/>
+      <c r="R76" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
       <c r="S76" t="inlineStr"/>
       <c r="T76" t="inlineStr">
         <is>
@@ -8225,12 +8095,12 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>116</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>PRESION_P1</t>
+          <t>CAUDALIMETRO_TOTQAC</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
@@ -8241,7 +8111,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -8255,9 +8125,7 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
         <v>0</v>
       </c>
@@ -8327,12 +8195,12 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>PRESION_P2</t>
+          <t>CAUDALIMETRO_QAC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
@@ -8343,7 +8211,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -8357,9 +8225,7 @@
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
         <v>0</v>
       </c>
@@ -8429,12 +8295,12 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>120</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TEMP_AMBIENTE_T1</t>
+          <t>CAUDALIMETRO_TQAC</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
@@ -8445,7 +8311,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -8459,9 +8325,7 @@
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
         <v>0</v>
       </c>
@@ -8531,12 +8395,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>122</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TOTQAC</t>
+          <t>CAUDALIMETRO_PQAC</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
@@ -8547,7 +8411,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -8561,9 +8425,7 @@
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
         <v>0</v>
       </c>
@@ -8633,12 +8495,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>124</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_QAC</t>
+          <t>PRESION_P3</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
@@ -8649,7 +8511,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -8663,9 +8525,7 @@
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
         <v>0</v>
       </c>
@@ -8735,12 +8595,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>126</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQAC</t>
+          <t>PRESION_P4</t>
         </is>
       </c>
       <c r="D82" t="inlineStr"/>
@@ -8751,7 +8611,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
@@ -8765,9 +8625,7 @@
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
         <v>0</v>
       </c>
@@ -8837,12 +8695,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>128</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_PQAC</t>
+          <t>PRESION_P5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
@@ -8853,7 +8711,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -8867,9 +8725,7 @@
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
         <v>0</v>
       </c>
@@ -8939,12 +8795,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>130</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>PRESION_P3</t>
+          <t>PRESION_P6</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
@@ -8955,7 +8811,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -8969,9 +8825,7 @@
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
         <v>0</v>
       </c>
@@ -9041,12 +8895,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>132</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>PRESION_P4</t>
+          <t>PRESION_P7</t>
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
@@ -9057,7 +8911,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -9071,9 +8925,7 @@
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>0</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
         <v>0</v>
       </c>
@@ -9143,12 +8995,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>134</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>PRESION_P5</t>
+          <t>PRESION_P8</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
@@ -9159,7 +9011,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -9173,9 +9025,7 @@
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>0</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
         <v>0</v>
       </c>
@@ -9245,12 +9095,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>136</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>PRESION_P6</t>
+          <t>PRESION_P9</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
@@ -9261,7 +9111,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -9275,9 +9125,7 @@
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>0</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
         <v>0</v>
       </c>
@@ -9347,12 +9195,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>138</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>PRESION_P7</t>
+          <t>PRESION_P10</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
@@ -9363,7 +9211,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -9377,9 +9225,7 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>0</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
         <v>0</v>
       </c>
@@ -9449,12 +9295,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>140</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>PRESION_P8</t>
+          <t>PRESION_P11</t>
         </is>
       </c>
       <c r="D89" t="inlineStr"/>
@@ -9465,7 +9311,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -9479,9 +9325,7 @@
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
         <v>0</v>
       </c>
@@ -9551,12 +9395,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>142</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>PRESION_P9</t>
+          <t>TEMPERATURA_T1</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
@@ -9567,7 +9411,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -9581,9 +9425,7 @@
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>0</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
         <v>0</v>
       </c>
@@ -9653,12 +9495,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>144</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>PRESION_P10</t>
+          <t>CAUDALIMETRO_Q1</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
@@ -9669,7 +9511,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -9683,9 +9525,7 @@
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>0</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
         <v>0</v>
       </c>
@@ -9755,12 +9595,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>146</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>PRESION_P11</t>
+          <t>CAUDALIMETRO_TQ1</t>
         </is>
       </c>
       <c r="D92" t="inlineStr"/>
@@ -9771,7 +9611,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
@@ -9785,9 +9625,7 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>0</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
         <v>0</v>
       </c>
@@ -9857,12 +9695,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>148</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TEMPERATURA_T1</t>
+          <t>TEMPERATURA_T2</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
@@ -9873,7 +9711,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -9887,9 +9725,7 @@
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>0</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
         <v>0</v>
       </c>
@@ -9959,12 +9795,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>150</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q1</t>
+          <t>PRESION_P12</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
@@ -9975,7 +9811,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -9989,9 +9825,7 @@
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>0</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
         <v>0</v>
       </c>
@@ -10061,12 +9895,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>152</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ1</t>
+          <t>CAUDALIMETRO_Q2</t>
         </is>
       </c>
       <c r="D95" t="inlineStr"/>
@@ -10077,7 +9911,7 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
@@ -10091,9 +9925,7 @@
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>0</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
         <v>0</v>
       </c>
@@ -10163,12 +9995,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>148</t>
+          <t>154</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>TEMPERATURA_T2</t>
+          <t>CAUDALIMETRO_TQ2</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
@@ -10179,7 +10011,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
@@ -10193,9 +10025,7 @@
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>0</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
         <v>0</v>
       </c>
@@ -10265,12 +10095,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>156</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PRESION_P12</t>
+          <t>PRESION_P13</t>
         </is>
       </c>
       <c r="D97" t="inlineStr"/>
@@ -10281,7 +10111,7 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
@@ -10295,9 +10125,7 @@
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>0</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
         <v>0</v>
       </c>
@@ -10367,12 +10195,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>158</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q2</t>
+          <t>PRESION_P14</t>
         </is>
       </c>
       <c r="D98" t="inlineStr"/>
@@ -10383,7 +10211,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -10397,9 +10225,7 @@
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>0</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
         <v>0</v>
       </c>
@@ -10469,12 +10295,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>160</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ2</t>
+          <t>CAUDALIMETRO_TOTQ3</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
@@ -10485,7 +10311,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -10499,9 +10325,7 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>0</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
         <v>0</v>
       </c>
@@ -10571,12 +10395,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>162</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>PRESION_P13</t>
+          <t>CAUDALIMETRO_Q3</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
@@ -10587,7 +10411,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
@@ -10601,9 +10425,7 @@
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>0</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
         <v>0</v>
       </c>
@@ -10673,12 +10495,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>164</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>PRESION_P14</t>
+          <t>CAUDALIMETRO_TQ3</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
@@ -10689,7 +10511,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -10703,9 +10525,7 @@
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>0</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
         <v>0</v>
       </c>
@@ -10775,12 +10595,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>166</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TOTQ3</t>
+          <t>CAUDALIMETRO_Q4</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
@@ -10791,7 +10611,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
@@ -10805,9 +10625,7 @@
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>0</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
         <v>0</v>
       </c>
@@ -10877,12 +10695,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>168</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q3</t>
+          <t>CAUDALIMETRO_TQ4</t>
         </is>
       </c>
       <c r="D103" t="inlineStr"/>
@@ -10893,7 +10711,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
@@ -10907,9 +10725,7 @@
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>0</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
         <v>0</v>
       </c>
@@ -10979,12 +10795,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>170</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ3</t>
+          <t>CAUDALIMETRO_Q5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
@@ -10995,7 +10811,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
@@ -11009,9 +10825,7 @@
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>0</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
         <v>0</v>
       </c>
@@ -11081,12 +10895,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>166</t>
+          <t>172</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q4</t>
+          <t>CAUDALIMETRO_TQ5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
@@ -11097,7 +10911,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -11111,9 +10925,7 @@
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>0</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
         <v>0</v>
       </c>
@@ -11183,12 +10995,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>174</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ4</t>
+          <t>CAUDALIMETRO_Q6</t>
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
@@ -11199,7 +11011,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -11213,9 +11025,7 @@
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>0</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
         <v>0</v>
       </c>
@@ -11285,12 +11095,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>176</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q5</t>
+          <t>CAUDALIMETRO_TQ6</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
@@ -11301,7 +11111,7 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -11315,9 +11125,7 @@
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>0</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
         <v>0</v>
       </c>
@@ -11387,12 +11195,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>178</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ5</t>
+          <t>CAUDALIMETRO_Q7</t>
         </is>
       </c>
       <c r="D108" t="inlineStr"/>
@@ -11403,7 +11211,7 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
@@ -11417,9 +11225,7 @@
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>0</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
         <v>0</v>
       </c>
@@ -11489,12 +11295,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>180</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q6</t>
+          <t>CAUDALIMETRO_TQ7</t>
         </is>
       </c>
       <c r="D109" t="inlineStr"/>
@@ -11505,7 +11311,7 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
@@ -11519,9 +11325,7 @@
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>0</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
         <v>0</v>
       </c>
@@ -11591,12 +11395,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>182</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ6</t>
+          <t>CAUDALIMETRO_TOTQ8</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
@@ -11607,7 +11411,7 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
@@ -11621,9 +11425,7 @@
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>0</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
         <v>0</v>
       </c>
@@ -11693,12 +11495,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>184</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q7</t>
+          <t>CAUDALIMETRO_Q8</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
@@ -11709,7 +11511,7 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -11723,9 +11525,7 @@
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>0</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
         <v>0</v>
       </c>
@@ -11795,12 +11595,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>186</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ7</t>
+          <t>CAUDALIMETRO_TQ8</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
@@ -11811,7 +11611,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -11825,9 +11625,7 @@
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>0</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
         <v>0</v>
       </c>
@@ -11897,15 +11695,19 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>182</t>
+          <t>LECTURA</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TOTQ8</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -11913,7 +11715,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -11927,9 +11729,7 @@
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>0</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
         <v>0</v>
       </c>
@@ -11949,11 +11749,7 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="R113" t="inlineStr"/>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
@@ -11999,15 +11795,19 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>Proceso</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_Q8</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -12015,7 +11815,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ANALOGICAS</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -12029,9 +11829,7 @@
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>0</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
         <v>0</v>
       </c>
@@ -12051,11 +11849,7 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
+      <c r="R114" t="inlineStr"/>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
@@ -12101,12 +11895,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>CAUDALIMETRO_TQ8</t>
+          <t>COMPRESOR_1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -12117,7 +11911,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -12131,9 +11925,7 @@
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>0</v>
-      </c>
+      <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
         <v>0</v>
       </c>
@@ -12155,7 +11947,7 @@
       </c>
       <c r="R115" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="S115" t="inlineStr"/>
@@ -12203,19 +11995,15 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LECTURA</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>COMPRESOR_2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -12223,7 +12011,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -12237,9 +12025,7 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
         <v>0</v>
       </c>
@@ -12259,7 +12045,11 @@
       <c r="Q116" t="n">
         <v>0</v>
       </c>
-      <c r="R116" t="inlineStr"/>
+      <c r="R116" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S116" t="inlineStr"/>
       <c r="T116" t="inlineStr">
         <is>
@@ -12305,19 +12095,15 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>SECADOR_1</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -12325,7 +12111,7 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -12339,9 +12125,7 @@
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>0</v>
-      </c>
+      <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
         <v>0</v>
       </c>
@@ -12361,7 +12145,11 @@
       <c r="Q117" t="n">
         <v>0</v>
       </c>
-      <c r="R117" t="inlineStr"/>
+      <c r="R117" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S117" t="inlineStr"/>
       <c r="T117" t="inlineStr">
         <is>
@@ -12407,12 +12195,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>ESTADO EQUIPOS</t>
+          <t>SECADOR_2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -12423,7 +12211,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -12437,9 +12225,7 @@
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
         <v>0</v>
       </c>
@@ -12459,7 +12245,11 @@
       <c r="Q118" t="n">
         <v>0</v>
       </c>
-      <c r="R118" t="inlineStr"/>
+      <c r="R118" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S118" t="inlineStr"/>
       <c r="T118" t="inlineStr">
         <is>
@@ -12505,12 +12295,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>COMPRESOR_1</t>
+          <t>ENFRIADORA_1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -12521,7 +12311,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -12535,9 +12325,7 @@
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
         <v>0</v>
       </c>
@@ -12607,12 +12395,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>193</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>COMPRESOR_2</t>
+          <t>ENFRIADORA_2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -12623,7 +12411,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -12637,9 +12425,7 @@
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
         <v>0</v>
       </c>
@@ -12709,12 +12495,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>SECADOR_1</t>
+          <t>BOMBA_1</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -12725,7 +12511,7 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -12739,9 +12525,7 @@
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>0</v>
-      </c>
+      <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
         <v>0</v>
       </c>
@@ -12811,12 +12595,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>SECADOR_2</t>
+          <t>BOMBA_2</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -12827,7 +12611,7 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -12841,9 +12625,7 @@
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
         <v>0</v>
       </c>
@@ -12913,12 +12695,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ENFRIADORA_1</t>
+          <t>BOMBA_3</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -12929,7 +12711,7 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -12943,9 +12725,7 @@
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>0</v>
-      </c>
+      <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
         <v>0</v>
       </c>
@@ -13015,12 +12795,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>197</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ENFRIADORA_2</t>
+          <t>BOMBA_4</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -13031,7 +12811,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -13045,9 +12825,7 @@
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>0</v>
-      </c>
+      <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
         <v>0</v>
       </c>
@@ -13117,12 +12895,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>BOMBA_1</t>
+          <t>BOMBA_5</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -13133,7 +12911,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -13147,9 +12925,7 @@
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>0</v>
-      </c>
+      <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
         <v>0</v>
       </c>
@@ -13219,12 +12995,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>199</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BOMBA_2</t>
+          <t>BOMBA_6</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -13235,7 +13011,7 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -13249,9 +13025,7 @@
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>0</v>
-      </c>
+      <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
         <v>0</v>
       </c>
@@ -13321,12 +13095,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BOMBA_3</t>
+          <t>BOMBA_7</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -13337,7 +13111,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -13351,9 +13125,7 @@
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>0</v>
-      </c>
+      <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
         <v>0</v>
       </c>
@@ -13423,12 +13195,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>BOMBA_4</t>
+          <t>VENTILACION_AMBIENTE</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -13439,7 +13211,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -13453,9 +13225,7 @@
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>0</v>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
         <v>0</v>
       </c>
@@ -13525,12 +13295,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>BOMBA_5</t>
+          <t>ENFRIADORA_3</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -13541,7 +13311,7 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -13555,9 +13325,7 @@
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>0</v>
-      </c>
+      <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
         <v>0</v>
       </c>
@@ -13627,12 +13395,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>203</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>BOMBA_6</t>
+          <t>ENFRIADORA_4</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -13643,7 +13411,7 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -13657,9 +13425,7 @@
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>0</v>
-      </c>
+      <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
         <v>0</v>
       </c>
@@ -13729,12 +13495,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>BOMBA_7</t>
+          <t>COMPUERTA_1</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -13745,7 +13511,7 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -13759,9 +13525,7 @@
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>0</v>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
         <v>0</v>
       </c>
@@ -13831,12 +13595,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>VENTILACION_AMBIENTE</t>
+          <t>COMPUERTA_2</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -13847,7 +13611,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -13861,9 +13625,7 @@
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>0</v>
-      </c>
+      <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
         <v>0</v>
       </c>
@@ -13933,12 +13695,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ENFRIADORA_3</t>
+          <t>COMPUERTA_3</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -13949,7 +13711,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -13963,9 +13725,7 @@
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>0</v>
-      </c>
+      <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
         <v>0</v>
       </c>
@@ -14035,12 +13795,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ENFRIADORA_4</t>
+          <t>COMPUERTA_4</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -14051,7 +13811,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -14065,9 +13825,7 @@
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>0</v>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
         <v>0</v>
       </c>
@@ -14137,12 +13895,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>COMPUERTA_1</t>
+          <t>INTERCAMBIADOR_1_1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -14153,7 +13911,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -14167,9 +13925,7 @@
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
         <v>0</v>
       </c>
@@ -14239,12 +13995,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>COMPUERTA_2</t>
+          <t>INTERCAMBIADOR_1_2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -14255,7 +14011,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -14269,9 +14025,7 @@
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>0</v>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
         <v>0</v>
       </c>
@@ -14341,12 +14095,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>COMPUERTA_3</t>
+          <t>INTERCAMBIADOR_2_1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -14357,7 +14111,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -14371,9 +14125,7 @@
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>0</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
         <v>0</v>
       </c>
@@ -14443,12 +14195,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>COMPUERTA_4</t>
+          <t>INTERCAMBIADOR_2_2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -14459,7 +14211,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -14473,9 +14225,7 @@
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>0</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
         <v>0</v>
       </c>
@@ -14545,12 +14295,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_1</t>
+          <t>VALVULA_SECADOR_1</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -14561,7 +14311,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -14575,9 +14325,7 @@
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>0</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
         <v>0</v>
       </c>
@@ -14647,12 +14395,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>213</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_2</t>
+          <t>VALVULA_SECADOR_2</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -14663,7 +14411,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -14677,9 +14425,7 @@
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>0</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
         <v>0</v>
       </c>
@@ -14749,12 +14495,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>214</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_1</t>
+          <t>VALVULA_LLENADO</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -14765,7 +14511,7 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -14779,9 +14525,7 @@
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>0</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
         <v>0</v>
       </c>
@@ -14851,12 +14595,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>215</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_2</t>
+          <t>RESERVA_1</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -14867,7 +14611,7 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -14881,9 +14625,7 @@
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>0</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
         <v>0</v>
       </c>
@@ -14953,12 +14695,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>216</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_1</t>
+          <t>RESERVA_2</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -14969,7 +14711,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -14983,9 +14725,7 @@
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>0</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
         <v>0</v>
       </c>
@@ -15055,12 +14795,12 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_2</t>
+          <t>RESERVA_3</t>
         </is>
       </c>
       <c r="D144" t="inlineStr"/>
@@ -15071,7 +14811,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -15085,9 +14825,7 @@
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>0</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
         <v>0</v>
       </c>
@@ -15157,12 +14895,12 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>VALVULA_LLENADO</t>
+          <t>RESERVA_4</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
@@ -15173,7 +14911,7 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -15187,9 +14925,7 @@
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>0</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
         <v>0</v>
       </c>
@@ -15257,14 +14993,10 @@
       <c r="A146" t="n">
         <v>145</v>
       </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>215</t>
-        </is>
-      </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
-          <t>RESERVA_1</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="D146" t="inlineStr"/>
@@ -15275,7 +15007,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -15289,9 +15021,7 @@
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>0</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
         <v>0</v>
       </c>
@@ -15313,7 +15043,8 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>DINT(4
+BYTES)</t>
         </is>
       </c>
       <c r="S146" t="inlineStr"/>
@@ -15361,15 +15092,19 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>RESERVA_2</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>AL_1</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>AL 1 - 24VDC_EXT_OK</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -15377,7 +15112,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -15391,9 +15126,7 @@
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>0</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
         <v>0</v>
       </c>
@@ -15415,7 +15148,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BIT 1</t>
         </is>
       </c>
       <c r="S147" t="inlineStr"/>
@@ -15463,15 +15196,19 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>RESERVA_3</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>AL_2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>AL 2 - PROT_230_AUX</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -15479,7 +15216,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -15493,9 +15230,7 @@
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>0</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
         <v>0</v>
       </c>
@@ -15517,7 +15252,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BIT 2</t>
         </is>
       </c>
       <c r="S148" t="inlineStr"/>
@@ -15565,15 +15300,19 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>RESERVA_4</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>AL_3</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>AL 3 - PROT_SKID_1_1</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -15581,7 +15320,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -15595,9 +15334,7 @@
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>0</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
         <v>0</v>
       </c>
@@ -15619,7 +15356,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BIT 3</t>
         </is>
       </c>
       <c r="S149" t="inlineStr"/>
@@ -15665,13 +15402,21 @@
       <c r="A150" t="n">
         <v>149</v>
       </c>
-      <c r="B150" t="inlineStr"/>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>ALARMAS_1</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>AL_4</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>AL 4 - PROT_SKID_1_2</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -15679,7 +15424,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -15693,9 +15438,7 @@
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>0</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
         <v>0</v>
       </c>
@@ -15717,8 +15460,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>DINT(4
-BYTES)</t>
+          <t>BIT 4</t>
         </is>
       </c>
       <c r="S150" t="inlineStr"/>
@@ -15771,22 +15513,22 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
+          <t>AL_5</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>AL 5 - PROT_SKID_A2</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
           <t>AL_0</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>AL 0 - SEG_OK</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F151" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -15800,9 +15542,7 @@
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>0</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
         <v>0</v>
       </c>
@@ -15824,7 +15564,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>BIT 0</t>
+          <t>BIT 5</t>
         </is>
       </c>
       <c r="S151" t="inlineStr"/>
@@ -15877,12 +15617,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AL_1</t>
+          <t>AL_6</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>AL 1 - 24VDC_EXT_OK</t>
+          <t>AL 6 - PROT_SKID_4_1</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -15892,7 +15632,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -15906,9 +15646,7 @@
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>0</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
         <v>0</v>
       </c>
@@ -15930,7 +15668,7 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>BIT 6</t>
         </is>
       </c>
       <c r="S152" t="inlineStr"/>
@@ -15983,12 +15721,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AL_2</t>
+          <t>AL_7</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>AL 2 - PROT_230_AUX</t>
+          <t>AL 7 - PROT_SEPARADOR</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -15998,7 +15736,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -16012,9 +15750,7 @@
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>0</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
         <v>0</v>
       </c>
@@ -16036,7 +15772,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>BIT 7</t>
         </is>
       </c>
       <c r="S153" t="inlineStr"/>
@@ -16089,12 +15825,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AL_3</t>
+          <t>AL_8</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>AL 3 - PROT_SKID_1_1</t>
+          <t>AL 8 - PROT_PC1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -16104,7 +15840,7 @@
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -16118,9 +15854,7 @@
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
         <v>0</v>
       </c>
@@ -16142,7 +15876,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>BIT 8</t>
         </is>
       </c>
       <c r="S154" t="inlineStr"/>
@@ -16195,12 +15929,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>AL_4</t>
+          <t>AL_9</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>AL 4 - PROT_SKID_1_2</t>
+          <t>AL 9 - PROT_PC2</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -16210,7 +15944,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -16224,9 +15958,7 @@
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>0</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
         <v>0</v>
       </c>
@@ -16248,7 +15980,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>BIT 9</t>
         </is>
       </c>
       <c r="S155" t="inlineStr"/>
@@ -16301,12 +16033,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>AL_5</t>
+          <t>AL_10</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>AL 5 - PROT_SKID_A2</t>
+          <t>AL 10 - RESERVA</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -16316,7 +16048,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -16330,9 +16062,7 @@
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>0</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
         <v>0</v>
       </c>
@@ -16354,7 +16084,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>BIT 10</t>
         </is>
       </c>
       <c r="S156" t="inlineStr"/>
@@ -16407,12 +16137,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AL_6</t>
+          <t>AL_11</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>AL 6 - PROT_SKID_4_1</t>
+          <t>AL 11 - ALARMA DEFECTO ACTIVO COMPRESOR_1</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -16422,7 +16152,7 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -16436,9 +16166,7 @@
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>0</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
         <v>0</v>
       </c>
@@ -16460,7 +16188,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>BIT 11</t>
         </is>
       </c>
       <c r="S157" t="inlineStr"/>
@@ -16513,12 +16241,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>AL_7</t>
+          <t>AL_12</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>AL 7 - PROT_SEPARADOR</t>
+          <t>AL 12 - ALARMA DEFECTO ACTIVO COMPRESOR_2</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -16528,7 +16256,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -16542,9 +16270,7 @@
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>0</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
         <v>0</v>
       </c>
@@ -16566,7 +16292,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>BIT 12</t>
         </is>
       </c>
       <c r="S158" t="inlineStr"/>
@@ -16619,12 +16345,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>AL_8</t>
+          <t>AL_13</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AL 8 - PROT_PC1</t>
+          <t>AL 13 - ALARMA DEFECTO ACTIVO SECADOR_1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -16634,7 +16360,7 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -16648,9 +16374,7 @@
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>0</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
         <v>0</v>
       </c>
@@ -16672,7 +16396,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>BIT 13</t>
         </is>
       </c>
       <c r="S159" t="inlineStr"/>
@@ -16725,12 +16449,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>AL_9</t>
+          <t>AL_14</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>AL 9 - PROT_PC2</t>
+          <t>AL 14 - ALARMA DEFECTO ACTIVO SECADOR_2</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -16740,7 +16464,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -16754,9 +16478,7 @@
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>0</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
         <v>0</v>
       </c>
@@ -16778,7 +16500,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>BIT 14</t>
         </is>
       </c>
       <c r="S160" t="inlineStr"/>
@@ -16831,12 +16553,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>AL_10</t>
+          <t>AL_15</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>AL 10 - RESERVA</t>
+          <t>AL 15 - ALARMA DEFECTO ACTIVO ENFRIADORA_1</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
@@ -16846,7 +16568,7 @@
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_0</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -16860,9 +16582,7 @@
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>0</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
         <v>0</v>
       </c>
@@ -16884,7 +16604,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>BIT 15</t>
         </is>
       </c>
       <c r="S161" t="inlineStr"/>
@@ -16932,17 +16652,17 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>AL_11</t>
+          <t>AL_17</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>AL 11 - ALARMA DEFECTO ACTIVO COMPRESOR_1</t>
+          <t>AL 17 - ALARMA DEFECTO ACTIVO BOMBA_1</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
@@ -16952,7 +16672,7 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -16966,9 +16686,7 @@
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>0</v>
-      </c>
+      <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
         <v>0</v>
       </c>
@@ -16990,7 +16708,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>BIT 17</t>
         </is>
       </c>
       <c r="S162" t="inlineStr"/>
@@ -17038,17 +16756,17 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AL_12</t>
+          <t>AL_18</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>AL 12 - ALARMA DEFECTO ACTIVO COMPRESOR_2</t>
+          <t>AL 18 - ALARMA DEFECTO ACTIVO BOMBA_2</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -17058,7 +16776,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -17072,9 +16790,7 @@
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>0</v>
-      </c>
+      <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
         <v>0</v>
       </c>
@@ -17096,7 +16812,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>BIT 18</t>
         </is>
       </c>
       <c r="S163" t="inlineStr"/>
@@ -17144,17 +16860,17 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AL_13</t>
+          <t>AL_19</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>AL 13 - ALARMA DEFECTO ACTIVO SECADOR_1</t>
+          <t>AL 19 - ALARMA DEFECTO ACTIVO BOMBA_3</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -17164,7 +16880,7 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -17178,9 +16894,7 @@
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>0</v>
-      </c>
+      <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
         <v>0</v>
       </c>
@@ -17202,7 +16916,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>BIT 19</t>
         </is>
       </c>
       <c r="S164" t="inlineStr"/>
@@ -17250,17 +16964,17 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AL_14</t>
+          <t>AL_20</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>AL 14 - ALARMA DEFECTO ACTIVO SECADOR_2</t>
+          <t>AL 20 - ALARMA DEFECTO ACTIVO BOMBA_4</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
@@ -17270,7 +16984,7 @@
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -17284,9 +16998,7 @@
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>0</v>
-      </c>
+      <c r="J165" t="inlineStr"/>
       <c r="K165" t="n">
         <v>0</v>
       </c>
@@ -17308,7 +17020,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>BIT 20</t>
         </is>
       </c>
       <c r="S165" t="inlineStr"/>
@@ -17356,17 +17068,17 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>AL_15</t>
+          <t>AL_21</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>AL 15 - ALARMA DEFECTO ACTIVO ENFRIADORA_1</t>
+          <t>AL 21 - ALARMA DEFECTO ACTIVO BOMBA_5</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -17376,7 +17088,7 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -17390,9 +17102,7 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>0</v>
-      </c>
+      <c r="J166" t="inlineStr"/>
       <c r="K166" t="n">
         <v>0</v>
       </c>
@@ -17414,7 +17124,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>BIT 21</t>
         </is>
       </c>
       <c r="S166" t="inlineStr"/>
@@ -17467,22 +17177,22 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
+          <t>AL_22</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>AL 22 - ALARMA DEFECTO ACTIVO BOMBA_6</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
           <t>AL_16</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>AL 16 - ALARMA DEFECTO ACTIVO ENFRIADORA_2</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -17496,9 +17206,7 @@
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>0</v>
-      </c>
+      <c r="J167" t="inlineStr"/>
       <c r="K167" t="n">
         <v>0</v>
       </c>
@@ -17520,7 +17228,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>BIT 16</t>
+          <t>BIT 22</t>
         </is>
       </c>
       <c r="S167" t="inlineStr"/>
@@ -17573,12 +17281,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>AL_17</t>
+          <t>AL_23</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>AL 17 - ALARMA DEFECTO ACTIVO BOMBA_1</t>
+          <t>AL 23 - ALARMA DEFECTO ACTIVO BOMBA_7</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
@@ -17588,7 +17296,7 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -17602,9 +17310,7 @@
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>0</v>
-      </c>
+      <c r="J168" t="inlineStr"/>
       <c r="K168" t="n">
         <v>0</v>
       </c>
@@ -17626,7 +17332,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>BIT 23</t>
         </is>
       </c>
       <c r="S168" t="inlineStr"/>
@@ -17679,12 +17385,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>AL_18</t>
+          <t>AL_24</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>AL 18 - ALARMA DEFECTO ACTIVO BOMBA_2</t>
+          <t>AL 24 - ALARMA DEFECTO ACTIVO VENTILACION_AMBIENTE</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -17694,7 +17400,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -17708,9 +17414,7 @@
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>0</v>
-      </c>
+      <c r="J169" t="inlineStr"/>
       <c r="K169" t="n">
         <v>0</v>
       </c>
@@ -17732,7 +17436,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>BIT 24</t>
         </is>
       </c>
       <c r="S169" t="inlineStr"/>
@@ -17785,12 +17489,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>AL_19</t>
+          <t>AL_25</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>AL 19 - ALARMA DEFECTO ACTIVO BOMBA_3</t>
+          <t>AL 25 - ALARMA DEFECTO ACTIVO ENFRIADORA_3</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
@@ -17800,7 +17504,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -17814,9 +17518,7 @@
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>0</v>
-      </c>
+      <c r="J170" t="inlineStr"/>
       <c r="K170" t="n">
         <v>0</v>
       </c>
@@ -17838,7 +17540,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>BIT 25</t>
         </is>
       </c>
       <c r="S170" t="inlineStr"/>
@@ -17891,12 +17593,12 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>AL_20</t>
+          <t>AL_26</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>AL 20 - ALARMA DEFECTO ACTIVO BOMBA_4</t>
+          <t>AL 26 - ALARMA DEFECTO ACTIVO ENFRIADORA_4</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -17906,7 +17608,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -17920,9 +17622,7 @@
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>0</v>
-      </c>
+      <c r="J171" t="inlineStr"/>
       <c r="K171" t="n">
         <v>0</v>
       </c>
@@ -17944,7 +17644,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>BIT 26</t>
         </is>
       </c>
       <c r="S171" t="inlineStr"/>
@@ -17997,12 +17697,12 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>AL_21</t>
+          <t>AL_27</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>AL 21 - ALARMA DEFECTO ACTIVO BOMBA_5</t>
+          <t>AL 27 - ALARMA DEFECTO ACTIVO COMPUERTA_1</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
@@ -18012,7 +17712,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -18026,9 +17726,7 @@
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>0</v>
-      </c>
+      <c r="J172" t="inlineStr"/>
       <c r="K172" t="n">
         <v>0</v>
       </c>
@@ -18050,7 +17748,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>BIT 27</t>
         </is>
       </c>
       <c r="S172" t="inlineStr"/>
@@ -18103,12 +17801,12 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>AL_22</t>
+          <t>AL_28</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>AL 22 - ALARMA DEFECTO ACTIVO BOMBA_6</t>
+          <t>AL 28 - ALARMA DEFECTO ACTIVO COMPUERTA_2</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
@@ -18118,7 +17816,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -18132,9 +17830,7 @@
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>0</v>
-      </c>
+      <c r="J173" t="inlineStr"/>
       <c r="K173" t="n">
         <v>0</v>
       </c>
@@ -18156,7 +17852,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>BIT 28</t>
         </is>
       </c>
       <c r="S173" t="inlineStr"/>
@@ -18209,12 +17905,12 @@
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AL_23</t>
+          <t>AL_29</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>AL 23 - ALARMA DEFECTO ACTIVO BOMBA_7</t>
+          <t>AL 29 - ALARMA DEFECTO ACTIVO COMPUERTA_3</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
@@ -18224,7 +17920,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -18238,9 +17934,7 @@
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>0</v>
-      </c>
+      <c r="J174" t="inlineStr"/>
       <c r="K174" t="n">
         <v>0</v>
       </c>
@@ -18262,7 +17956,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>BIT 29</t>
         </is>
       </c>
       <c r="S174" t="inlineStr"/>
@@ -18315,12 +18009,12 @@
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>AL_24</t>
+          <t>AL_30</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>AL 24 - ALARMA DEFECTO ACTIVO VENTILACION_AMBIENTE</t>
+          <t>AL 30 - ALARMA DEFECTO ACTIVO COMPUERTA_4</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -18330,7 +18024,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -18344,9 +18038,7 @@
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>0</v>
-      </c>
+      <c r="J175" t="inlineStr"/>
       <c r="K175" t="n">
         <v>0</v>
       </c>
@@ -18368,7 +18060,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>BIT 30</t>
         </is>
       </c>
       <c r="S175" t="inlineStr"/>
@@ -18421,12 +18113,12 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>AL_25</t>
+          <t>AL_31</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>AL 25 - ALARMA DEFECTO ACTIVO ENFRIADORA_3</t>
+          <t>AL 31 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
@@ -18436,7 +18128,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -18450,9 +18142,7 @@
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>0</v>
-      </c>
+      <c r="J176" t="inlineStr"/>
       <c r="K176" t="n">
         <v>0</v>
       </c>
@@ -18474,7 +18164,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>BIT 31</t>
         </is>
       </c>
       <c r="S176" t="inlineStr"/>
@@ -18520,21 +18210,13 @@
       <c r="A177" t="n">
         <v>176</v>
       </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>220</t>
-        </is>
-      </c>
+      <c r="B177" t="inlineStr"/>
       <c r="C177" t="inlineStr">
         <is>
-          <t>AL_26</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>AL 26 - ALARMA DEFECTO ACTIVO ENFRIADORA_4</t>
-        </is>
-      </c>
+          <t>ALARMAS_2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -18542,7 +18224,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_16</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -18556,9 +18238,7 @@
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>0</v>
-      </c>
+      <c r="J177" t="inlineStr"/>
       <c r="K177" t="n">
         <v>0</v>
       </c>
@@ -18580,7 +18260,8 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>DINT(4
+BYTES)</t>
         </is>
       </c>
       <c r="S177" t="inlineStr"/>
@@ -18628,17 +18309,17 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>AL_27</t>
+          <t>AL_33</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>AL 27 - ALARMA DEFECTO ACTIVO COMPUERTA_1</t>
+          <t>AL 33 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_1</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
@@ -18648,7 +18329,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -18662,9 +18343,7 @@
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>0</v>
-      </c>
+      <c r="J178" t="inlineStr"/>
       <c r="K178" t="n">
         <v>0</v>
       </c>
@@ -18686,7 +18365,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>BIT 1</t>
         </is>
       </c>
       <c r="S178" t="inlineStr"/>
@@ -18734,17 +18413,17 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>AL_28</t>
+          <t>AL_34</t>
         </is>
       </c>
       <c r="D179" t="inlineStr">
         <is>
-          <t>AL 28 - ALARMA DEFECTO ACTIVO COMPUERTA_2</t>
+          <t>AL 34 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_2</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
@@ -18754,7 +18433,7 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -18768,9 +18447,7 @@
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>0</v>
-      </c>
+      <c r="J179" t="inlineStr"/>
       <c r="K179" t="n">
         <v>0</v>
       </c>
@@ -18792,7 +18469,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>BIT 28</t>
+          <t>BIT 2</t>
         </is>
       </c>
       <c r="S179" t="inlineStr"/>
@@ -18840,17 +18517,17 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>AL_29</t>
+          <t>AL_35</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>AL 29 - ALARMA DEFECTO ACTIVO COMPUERTA_3</t>
+          <t>AL 35 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_1</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
@@ -18860,7 +18537,7 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -18874,9 +18551,7 @@
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>0</v>
-      </c>
+      <c r="J180" t="inlineStr"/>
       <c r="K180" t="n">
         <v>0</v>
       </c>
@@ -18898,7 +18573,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>BIT 29</t>
+          <t>BIT 3</t>
         </is>
       </c>
       <c r="S180" t="inlineStr"/>
@@ -18946,17 +18621,17 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>AL_30</t>
+          <t>AL_36</t>
         </is>
       </c>
       <c r="D181" t="inlineStr">
         <is>
-          <t>AL 30 - ALARMA DEFECTO ACTIVO COMPUERTA_4</t>
+          <t>AL 36 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_2</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
@@ -18966,7 +18641,7 @@
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -18980,9 +18655,7 @@
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>0</v>
-      </c>
+      <c r="J181" t="inlineStr"/>
       <c r="K181" t="n">
         <v>0</v>
       </c>
@@ -19004,7 +18677,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>BIT 30</t>
+          <t>BIT 4</t>
         </is>
       </c>
       <c r="S181" t="inlineStr"/>
@@ -19052,17 +18725,17 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AL_31</t>
+          <t>AL_37</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>AL 31 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_1</t>
+          <t>AL 37 - ALARMA DEFECTO ACTIVO VALVULA_LLENADO</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
@@ -19072,7 +18745,7 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -19086,9 +18759,7 @@
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>0</v>
-      </c>
+      <c r="J182" t="inlineStr"/>
       <c r="K182" t="n">
         <v>0</v>
       </c>
@@ -19110,7 +18781,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>BIT 31</t>
+          <t>BIT 5</t>
         </is>
       </c>
       <c r="S182" t="inlineStr"/>
@@ -19156,10 +18827,14 @@
       <c r="A183" t="n">
         <v>182</v>
       </c>
-      <c r="B183" t="inlineStr"/>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>ALARMAS_2</t>
+          <t>AL_38</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
@@ -19170,7 +18845,7 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -19184,9 +18859,7 @@
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>0</v>
-      </c>
+      <c r="J183" t="inlineStr"/>
       <c r="K183" t="n">
         <v>0</v>
       </c>
@@ -19208,8 +18881,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>DINT(4
-BYTES)</t>
+          <t>BIT 6</t>
         </is>
       </c>
       <c r="S183" t="inlineStr"/>
@@ -19262,22 +18934,18 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
+          <t>AL_39</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>STATUS</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
           <t>AL_32</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>AL 32 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_2</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F184" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -19291,9 +18959,7 @@
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>0</v>
-      </c>
+      <c r="J184" t="inlineStr"/>
       <c r="K184" t="n">
         <v>0</v>
       </c>
@@ -19315,7 +18981,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>BIT 0</t>
+          <t>BIT 7</t>
         </is>
       </c>
       <c r="S184" t="inlineStr"/>
@@ -19368,14 +19034,10 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AL_33</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>AL 33 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_1</t>
-        </is>
-      </c>
+          <t>AL_40</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -19383,7 +19045,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -19397,9 +19059,7 @@
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>0</v>
-      </c>
+      <c r="J185" t="inlineStr"/>
       <c r="K185" t="n">
         <v>0</v>
       </c>
@@ -19421,7 +19081,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>BIT 8</t>
         </is>
       </c>
       <c r="S185" t="inlineStr"/>
@@ -19474,14 +19134,10 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AL_34</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>AL 34 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_2</t>
-        </is>
-      </c>
+          <t>AL_41</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -19489,7 +19145,7 @@
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -19503,9 +19159,7 @@
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>0</v>
-      </c>
+      <c r="J186" t="inlineStr"/>
       <c r="K186" t="n">
         <v>0</v>
       </c>
@@ -19527,7 +19181,7 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>BIT 9</t>
         </is>
       </c>
       <c r="S186" t="inlineStr"/>
@@ -19580,14 +19234,10 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>AL_35</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>AL 35 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_1</t>
-        </is>
-      </c>
+          <t>AL_42</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -19595,7 +19245,7 @@
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -19609,9 +19259,7 @@
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>0</v>
-      </c>
+      <c r="J187" t="inlineStr"/>
       <c r="K187" t="n">
         <v>0</v>
       </c>
@@ -19633,7 +19281,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>BIT 10</t>
         </is>
       </c>
       <c r="S187" t="inlineStr"/>
@@ -19686,14 +19334,10 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AL_36</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>AL 36 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_2</t>
-        </is>
-      </c>
+          <t>AL_43</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -19701,7 +19345,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -19715,9 +19359,7 @@
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>0</v>
-      </c>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="n">
         <v>0</v>
       </c>
@@ -19739,7 +19381,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>BIT 11</t>
         </is>
       </c>
       <c r="S188" t="inlineStr"/>
@@ -19792,14 +19434,10 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AL_37</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>AL 37 - ALARMA DEFECTO ACTIVO VALVULA_LLENADO</t>
-        </is>
-      </c>
+          <t>AL_44</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -19807,7 +19445,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
@@ -19821,9 +19459,7 @@
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>0</v>
-      </c>
+      <c r="J189" t="inlineStr"/>
       <c r="K189" t="n">
         <v>0</v>
       </c>
@@ -19845,7 +19481,7 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>BIT 12</t>
         </is>
       </c>
       <c r="S189" t="inlineStr"/>
@@ -19898,7 +19534,7 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AL_38</t>
+          <t>AL_45</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
@@ -19909,7 +19545,7 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -19923,9 +19559,7 @@
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>0</v>
-      </c>
+      <c r="J190" t="inlineStr"/>
       <c r="K190" t="n">
         <v>0</v>
       </c>
@@ -19947,7 +19581,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>BIT 13</t>
         </is>
       </c>
       <c r="S190" t="inlineStr"/>
@@ -20000,7 +19634,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>AL_39</t>
+          <t>AL_46</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
@@ -20011,7 +19645,7 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -20025,9 +19659,7 @@
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>0</v>
-      </c>
+      <c r="J191" t="inlineStr"/>
       <c r="K191" t="n">
         <v>0</v>
       </c>
@@ -20049,7 +19681,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>BIT 14</t>
         </is>
       </c>
       <c r="S191" t="inlineStr"/>
@@ -20102,7 +19734,7 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AL_40</t>
+          <t>AL_47</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
@@ -20113,7 +19745,7 @@
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_32</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -20127,9 +19759,7 @@
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>0</v>
-      </c>
+      <c r="J192" t="inlineStr"/>
       <c r="K192" t="n">
         <v>0</v>
       </c>
@@ -20151,7 +19781,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>BIT 15</t>
         </is>
       </c>
       <c r="S192" t="inlineStr"/>
@@ -20199,12 +19829,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>AL_41</t>
+          <t>AL_49</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
@@ -20215,7 +19845,7 @@
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -20229,9 +19859,7 @@
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>0</v>
-      </c>
+      <c r="J193" t="inlineStr"/>
       <c r="K193" t="n">
         <v>0</v>
       </c>
@@ -20253,7 +19881,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>BIT 17</t>
         </is>
       </c>
       <c r="S193" t="inlineStr"/>
@@ -20301,12 +19929,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AL_42</t>
+          <t>AL_50</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
@@ -20317,7 +19945,7 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -20331,9 +19959,7 @@
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>0</v>
-      </c>
+      <c r="J194" t="inlineStr"/>
       <c r="K194" t="n">
         <v>0</v>
       </c>
@@ -20355,7 +19981,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>BIT 18</t>
         </is>
       </c>
       <c r="S194" t="inlineStr"/>
@@ -20403,12 +20029,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AL_43</t>
+          <t>AL_51</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
@@ -20419,7 +20045,7 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -20433,9 +20059,7 @@
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>0</v>
-      </c>
+      <c r="J195" t="inlineStr"/>
       <c r="K195" t="n">
         <v>0</v>
       </c>
@@ -20457,7 +20081,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>BIT 19</t>
         </is>
       </c>
       <c r="S195" t="inlineStr"/>
@@ -20505,12 +20129,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AL_44</t>
+          <t>AL_52</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
@@ -20521,7 +20145,7 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -20535,9 +20159,7 @@
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>0</v>
-      </c>
+      <c r="J196" t="inlineStr"/>
       <c r="K196" t="n">
         <v>0</v>
       </c>
@@ -20559,7 +20181,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>BIT 20</t>
         </is>
       </c>
       <c r="S196" t="inlineStr"/>
@@ -20607,12 +20229,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AL_45</t>
+          <t>AL_53</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
@@ -20623,7 +20245,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -20637,9 +20259,7 @@
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>0</v>
-      </c>
+      <c r="J197" t="inlineStr"/>
       <c r="K197" t="n">
         <v>0</v>
       </c>
@@ -20661,7 +20281,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>BIT 21</t>
         </is>
       </c>
       <c r="S197" t="inlineStr"/>
@@ -20709,12 +20329,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AL_46</t>
+          <t>AL_54</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
@@ -20725,7 +20345,7 @@
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -20739,9 +20359,7 @@
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>0</v>
-      </c>
+      <c r="J198" t="inlineStr"/>
       <c r="K198" t="n">
         <v>0</v>
       </c>
@@ -20763,7 +20381,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>BIT 22</t>
         </is>
       </c>
       <c r="S198" t="inlineStr"/>
@@ -20811,12 +20429,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AL_47</t>
+          <t>AL_55</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
@@ -20827,7 +20445,7 @@
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -20841,9 +20459,7 @@
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>0</v>
-      </c>
+      <c r="J199" t="inlineStr"/>
       <c r="K199" t="n">
         <v>0</v>
       </c>
@@ -20865,7 +20481,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>BIT 23</t>
         </is>
       </c>
       <c r="S199" t="inlineStr"/>
@@ -20918,7 +20534,7 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>AL_56</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
@@ -20929,7 +20545,7 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -20943,9 +20559,7 @@
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>0</v>
-      </c>
+      <c r="J200" t="inlineStr"/>
       <c r="K200" t="n">
         <v>0</v>
       </c>
@@ -20967,7 +20581,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>BIT 16</t>
+          <t>BIT 24</t>
         </is>
       </c>
       <c r="S200" t="inlineStr"/>
@@ -21020,7 +20634,7 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>AL_49</t>
+          <t>AL_57</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
@@ -21031,7 +20645,7 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -21045,9 +20659,7 @@
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>0</v>
-      </c>
+      <c r="J201" t="inlineStr"/>
       <c r="K201" t="n">
         <v>0</v>
       </c>
@@ -21069,7 +20681,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>BIT 25</t>
         </is>
       </c>
       <c r="S201" t="inlineStr"/>
@@ -21122,7 +20734,7 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AL_50</t>
+          <t>AL_58</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
@@ -21133,7 +20745,7 @@
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -21147,9 +20759,7 @@
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>0</v>
-      </c>
+      <c r="J202" t="inlineStr"/>
       <c r="K202" t="n">
         <v>0</v>
       </c>
@@ -21171,7 +20781,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>BIT 26</t>
         </is>
       </c>
       <c r="S202" t="inlineStr"/>
@@ -21224,7 +20834,7 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AL_51</t>
+          <t>AL_59</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
@@ -21235,7 +20845,7 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -21249,9 +20859,7 @@
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>0</v>
-      </c>
+      <c r="J203" t="inlineStr"/>
       <c r="K203" t="n">
         <v>0</v>
       </c>
@@ -21273,7 +20881,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>BIT 27</t>
         </is>
       </c>
       <c r="S203" t="inlineStr"/>
@@ -21326,7 +20934,7 @@
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>AL_52</t>
+          <t>AL_60</t>
         </is>
       </c>
       <c r="D204" t="inlineStr"/>
@@ -21337,7 +20945,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -21351,9 +20959,7 @@
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>0</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="n">
         <v>0</v>
       </c>
@@ -21375,7 +20981,7 @@
       </c>
       <c r="R204" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>BIT 28</t>
         </is>
       </c>
       <c r="S204" t="inlineStr"/>
@@ -21428,7 +21034,7 @@
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>AL_53</t>
+          <t>AL_61</t>
         </is>
       </c>
       <c r="D205" t="inlineStr"/>
@@ -21439,7 +21045,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -21453,9 +21059,7 @@
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>0</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="n">
         <v>0</v>
       </c>
@@ -21477,7 +21081,7 @@
       </c>
       <c r="R205" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>BIT 29</t>
         </is>
       </c>
       <c r="S205" t="inlineStr"/>
@@ -21530,7 +21134,7 @@
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>AL_54</t>
+          <t>AL_62</t>
         </is>
       </c>
       <c r="D206" t="inlineStr"/>
@@ -21541,7 +21145,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -21555,9 +21159,7 @@
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>0</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="n">
         <v>0</v>
       </c>
@@ -21579,7 +21181,7 @@
       </c>
       <c r="R206" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>BIT 30</t>
         </is>
       </c>
       <c r="S206" t="inlineStr"/>
@@ -21632,7 +21234,7 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>AL_55</t>
+          <t>RESET ALARMAS</t>
         </is>
       </c>
       <c r="D207" t="inlineStr"/>
@@ -21643,7 +21245,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>DEFAULT</t>
+          <t>AL_48</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -21657,9 +21259,7 @@
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>0</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="n">
         <v>0</v>
       </c>
@@ -21681,7 +21281,7 @@
       </c>
       <c r="R207" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>BIT 31</t>
         </is>
       </c>
       <c r="S207" t="inlineStr"/>
@@ -21722,822 +21322,6 @@
         <v>0</v>
       </c>
       <c r="AD207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" t="n">
-        <v>207</v>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>AL_56</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F208" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G208" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H208" t="n">
-        <v>60</v>
-      </c>
-      <c r="I208" t="n">
-        <v>0</v>
-      </c>
-      <c r="J208" t="n">
-        <v>0</v>
-      </c>
-      <c r="K208" t="n">
-        <v>0</v>
-      </c>
-      <c r="L208" t="n">
-        <v>0</v>
-      </c>
-      <c r="M208" t="inlineStr"/>
-      <c r="N208" t="n">
-        <v>0</v>
-      </c>
-      <c r="O208" t="n">
-        <v>0</v>
-      </c>
-      <c r="P208" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q208" t="n">
-        <v>0</v>
-      </c>
-      <c r="R208" t="inlineStr">
-        <is>
-          <t>BIT 24</t>
-        </is>
-      </c>
-      <c r="S208" t="inlineStr"/>
-      <c r="T208" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U208" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V208" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W208" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X208" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y208" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z208" t="inlineStr"/>
-      <c r="AA208" t="inlineStr"/>
-      <c r="AB208" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC208" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" t="n">
-        <v>208</v>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>AL_57</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F209" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G209" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H209" t="n">
-        <v>60</v>
-      </c>
-      <c r="I209" t="n">
-        <v>0</v>
-      </c>
-      <c r="J209" t="n">
-        <v>0</v>
-      </c>
-      <c r="K209" t="n">
-        <v>0</v>
-      </c>
-      <c r="L209" t="n">
-        <v>0</v>
-      </c>
-      <c r="M209" t="inlineStr"/>
-      <c r="N209" t="n">
-        <v>0</v>
-      </c>
-      <c r="O209" t="n">
-        <v>0</v>
-      </c>
-      <c r="P209" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q209" t="n">
-        <v>0</v>
-      </c>
-      <c r="R209" t="inlineStr">
-        <is>
-          <t>BIT 25</t>
-        </is>
-      </c>
-      <c r="S209" t="inlineStr"/>
-      <c r="T209" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U209" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V209" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W209" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X209" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y209" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z209" t="inlineStr"/>
-      <c r="AA209" t="inlineStr"/>
-      <c r="AB209" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC209" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" t="n">
-        <v>209</v>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr">
-        <is>
-          <t>AL_58</t>
-        </is>
-      </c>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F210" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G210" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H210" t="n">
-        <v>60</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
-      <c r="J210" t="n">
-        <v>0</v>
-      </c>
-      <c r="K210" t="n">
-        <v>0</v>
-      </c>
-      <c r="L210" t="n">
-        <v>0</v>
-      </c>
-      <c r="M210" t="inlineStr"/>
-      <c r="N210" t="n">
-        <v>0</v>
-      </c>
-      <c r="O210" t="n">
-        <v>0</v>
-      </c>
-      <c r="P210" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q210" t="n">
-        <v>0</v>
-      </c>
-      <c r="R210" t="inlineStr">
-        <is>
-          <t>BIT 26</t>
-        </is>
-      </c>
-      <c r="S210" t="inlineStr"/>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U210" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V210" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W210" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X210" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y210" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z210" t="inlineStr"/>
-      <c r="AA210" t="inlineStr"/>
-      <c r="AB210" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC210" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" t="n">
-        <v>210</v>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>AL_59</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F211" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G211" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H211" t="n">
-        <v>60</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
-      <c r="J211" t="n">
-        <v>0</v>
-      </c>
-      <c r="K211" t="n">
-        <v>0</v>
-      </c>
-      <c r="L211" t="n">
-        <v>0</v>
-      </c>
-      <c r="M211" t="inlineStr"/>
-      <c r="N211" t="n">
-        <v>0</v>
-      </c>
-      <c r="O211" t="n">
-        <v>0</v>
-      </c>
-      <c r="P211" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q211" t="n">
-        <v>0</v>
-      </c>
-      <c r="R211" t="inlineStr">
-        <is>
-          <t>BIT 27</t>
-        </is>
-      </c>
-      <c r="S211" t="inlineStr"/>
-      <c r="T211" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U211" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V211" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W211" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X211" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y211" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z211" t="inlineStr"/>
-      <c r="AA211" t="inlineStr"/>
-      <c r="AB211" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC211" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" t="n">
-        <v>211</v>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>AL_60</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F212" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G212" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H212" t="n">
-        <v>60</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
-      <c r="J212" t="n">
-        <v>0</v>
-      </c>
-      <c r="K212" t="n">
-        <v>0</v>
-      </c>
-      <c r="L212" t="n">
-        <v>0</v>
-      </c>
-      <c r="M212" t="inlineStr"/>
-      <c r="N212" t="n">
-        <v>0</v>
-      </c>
-      <c r="O212" t="n">
-        <v>0</v>
-      </c>
-      <c r="P212" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q212" t="n">
-        <v>0</v>
-      </c>
-      <c r="R212" t="inlineStr">
-        <is>
-          <t>BIT 28</t>
-        </is>
-      </c>
-      <c r="S212" t="inlineStr"/>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W212" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X212" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y212" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z212" t="inlineStr"/>
-      <c r="AA212" t="inlineStr"/>
-      <c r="AB212" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC212" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" t="n">
-        <v>212</v>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr">
-        <is>
-          <t>AL_61</t>
-        </is>
-      </c>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F213" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G213" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H213" t="n">
-        <v>60</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="n">
-        <v>0</v>
-      </c>
-      <c r="K213" t="n">
-        <v>0</v>
-      </c>
-      <c r="L213" t="n">
-        <v>0</v>
-      </c>
-      <c r="M213" t="inlineStr"/>
-      <c r="N213" t="n">
-        <v>0</v>
-      </c>
-      <c r="O213" t="n">
-        <v>0</v>
-      </c>
-      <c r="P213" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q213" t="n">
-        <v>0</v>
-      </c>
-      <c r="R213" t="inlineStr">
-        <is>
-          <t>BIT 29</t>
-        </is>
-      </c>
-      <c r="S213" t="inlineStr"/>
-      <c r="T213" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U213" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V213" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W213" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X213" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y213" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z213" t="inlineStr"/>
-      <c r="AA213" t="inlineStr"/>
-      <c r="AB213" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC213" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" t="n">
-        <v>213</v>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>AL_62</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F214" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G214" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H214" t="n">
-        <v>60</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="n">
-        <v>0</v>
-      </c>
-      <c r="K214" t="n">
-        <v>0</v>
-      </c>
-      <c r="L214" t="n">
-        <v>0</v>
-      </c>
-      <c r="M214" t="inlineStr"/>
-      <c r="N214" t="n">
-        <v>0</v>
-      </c>
-      <c r="O214" t="n">
-        <v>0</v>
-      </c>
-      <c r="P214" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q214" t="n">
-        <v>0</v>
-      </c>
-      <c r="R214" t="inlineStr">
-        <is>
-          <t>BIT 30</t>
-        </is>
-      </c>
-      <c r="S214" t="inlineStr"/>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U214" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V214" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W214" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X214" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y214" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z214" t="inlineStr"/>
-      <c r="AA214" t="inlineStr"/>
-      <c r="AB214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC214" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" t="n">
-        <v>214</v>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>RESET ALARMAS</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F215" t="inlineStr">
-        <is>
-          <t>DEFAULT</t>
-        </is>
-      </c>
-      <c r="G215" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H215" t="n">
-        <v>60</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="n">
-        <v>0</v>
-      </c>
-      <c r="K215" t="n">
-        <v>0</v>
-      </c>
-      <c r="L215" t="n">
-        <v>0</v>
-      </c>
-      <c r="M215" t="inlineStr"/>
-      <c r="N215" t="n">
-        <v>0</v>
-      </c>
-      <c r="O215" t="n">
-        <v>0</v>
-      </c>
-      <c r="P215" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q215" t="n">
-        <v>0</v>
-      </c>
-      <c r="R215" t="inlineStr">
-        <is>
-          <t>BIT 31</t>
-        </is>
-      </c>
-      <c r="S215" t="inlineStr"/>
-      <c r="T215" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U215" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V215" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W215" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X215" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y215" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z215" t="inlineStr"/>
-      <c r="AA215" t="inlineStr"/>
-      <c r="AB215" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC215" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD215" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/1toolConverter_local/backend/cefa.xlsx
+++ b/1toolConverter_local/backend/cefa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD207"/>
+  <dimension ref="A1:AD203"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -606,7 +606,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -616,16 +616,18 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>6</v>
+      </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
@@ -706,7 +708,7 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -716,16 +718,18 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>5</v>
+      </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
@@ -806,7 +810,7 @@
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -816,16 +820,18 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -906,7 +912,7 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -916,16 +922,18 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6</v>
+      </c>
       <c r="K5" t="n">
         <v>0</v>
       </c>
@@ -1006,7 +1014,7 @@
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -1016,16 +1024,18 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J6" t="n">
+        <v>6</v>
+      </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
@@ -1106,7 +1116,7 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -1116,16 +1126,18 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
@@ -1206,7 +1218,7 @@
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1216,16 +1228,18 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
+        <v>6</v>
+      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
@@ -1306,7 +1320,7 @@
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1316,16 +1330,18 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
@@ -1406,7 +1422,7 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1416,16 +1432,18 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
       <c r="K10" t="n">
         <v>0</v>
       </c>
@@ -1506,7 +1524,7 @@
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1516,16 +1534,18 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J11" t="n">
+        <v>5</v>
+      </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
@@ -1606,7 +1626,7 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1616,16 +1636,18 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
@@ -1706,7 +1728,7 @@
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1716,16 +1738,18 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J13" t="n">
+        <v>5</v>
+      </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
@@ -1806,7 +1830,7 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1816,16 +1840,18 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
@@ -1906,7 +1932,7 @@
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1916,16 +1942,18 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J15" t="n">
+        <v>5</v>
+      </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
@@ -2006,7 +2034,7 @@
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2016,16 +2044,18 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J16" t="n">
+        <v>5</v>
+      </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
@@ -2106,7 +2136,7 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -2116,16 +2146,18 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>5</v>
+      </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
@@ -2206,7 +2238,7 @@
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2216,16 +2248,18 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>6</v>
+      </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
@@ -2306,7 +2340,7 @@
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2316,16 +2350,18 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J19" t="n">
+        <v>6</v>
+      </c>
       <c r="K19" t="n">
         <v>0</v>
       </c>
@@ -2406,7 +2442,7 @@
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2416,7 +2452,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -2425,7 +2461,9 @@
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
@@ -2506,7 +2544,7 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2516,16 +2554,18 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>5</v>
+      </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
@@ -2606,7 +2646,7 @@
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -2616,16 +2656,18 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>5</v>
+      </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
@@ -2706,7 +2748,7 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2716,16 +2758,18 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>5</v>
+      </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
@@ -2806,7 +2850,7 @@
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>CONFIG_PARAMETER</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2816,16 +2860,18 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>5</v>
+      </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
@@ -2906,7 +2952,7 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2916,16 +2962,18 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6</v>
+      </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
@@ -3006,7 +3054,7 @@
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -3016,16 +3064,18 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>6</v>
+      </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
@@ -3106,7 +3156,7 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -3116,7 +3166,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -3125,7 +3175,9 @@
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
@@ -3206,7 +3258,7 @@
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -3216,16 +3268,18 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>6</v>
+      </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
@@ -3306,7 +3360,7 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -3316,16 +3370,18 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J29" t="n">
+        <v>6</v>
+      </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
@@ -3406,7 +3462,7 @@
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -3416,7 +3472,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -3425,7 +3481,9 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
@@ -3506,7 +3564,7 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -3516,7 +3574,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -3525,7 +3583,9 @@
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
@@ -3606,7 +3666,7 @@
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3616,16 +3676,18 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6</v>
+      </c>
       <c r="K32" t="n">
         <v>0</v>
       </c>
@@ -3706,7 +3768,7 @@
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3716,7 +3778,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -3725,7 +3787,9 @@
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3806,7 +3870,7 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -3816,16 +3880,18 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J34" t="n">
+        <v>6</v>
+      </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
@@ -3906,7 +3972,7 @@
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3916,7 +3982,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -3925,7 +3991,9 @@
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -4006,7 +4074,7 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4016,16 +4084,18 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>6</v>
+      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -4106,7 +4176,7 @@
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4116,16 +4186,18 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J37" t="n">
+        <v>6</v>
+      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -4206,7 +4278,7 @@
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4216,16 +4288,18 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J38" t="n">
+        <v>6</v>
+      </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
@@ -4306,7 +4380,7 @@
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>SET_POINT</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4316,16 +4390,18 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J39" t="n">
+        <v>6</v>
+      </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
@@ -4406,7 +4482,7 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4416,7 +4492,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -4425,7 +4501,9 @@
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
@@ -4506,7 +4584,7 @@
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4516,7 +4594,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -4525,7 +4603,9 @@
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
@@ -4606,7 +4686,7 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>DEFAULT</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4616,7 +4696,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -4625,7 +4705,9 @@
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
@@ -4706,7 +4788,7 @@
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4716,16 +4798,18 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>6</v>
+      </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -4806,7 +4890,7 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -4816,16 +4900,18 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>6</v>
+      </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
@@ -4906,7 +4992,7 @@
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -4916,16 +5002,18 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>6</v>
+      </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
@@ -5006,7 +5094,7 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -5016,16 +5104,18 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>6</v>
+      </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
@@ -5106,7 +5196,7 @@
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5116,16 +5206,18 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>6</v>
+      </c>
       <c r="K47" t="n">
         <v>0</v>
       </c>
@@ -5206,7 +5298,7 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5216,16 +5308,18 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>6</v>
+      </c>
       <c r="K48" t="n">
         <v>0</v>
       </c>
@@ -5306,7 +5400,7 @@
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5316,16 +5410,18 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>6</v>
+      </c>
       <c r="K49" t="n">
         <v>0</v>
       </c>
@@ -5406,7 +5502,7 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -5416,16 +5512,18 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>6</v>
+      </c>
       <c r="K50" t="n">
         <v>0</v>
       </c>
@@ -5506,7 +5604,7 @@
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -5516,16 +5614,18 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>6</v>
+      </c>
       <c r="K51" t="n">
         <v>0</v>
       </c>
@@ -5606,7 +5706,7 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -5616,16 +5716,18 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>6</v>
+      </c>
       <c r="K52" t="n">
         <v>0</v>
       </c>
@@ -5706,7 +5808,7 @@
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5716,16 +5818,18 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H53" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>6</v>
+      </c>
       <c r="K53" t="n">
         <v>0</v>
       </c>
@@ -5806,7 +5910,7 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -5816,16 +5920,18 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H54" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>6</v>
+      </c>
       <c r="K54" t="n">
         <v>0</v>
       </c>
@@ -5906,7 +6012,7 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -5916,16 +6022,18 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H55" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>6</v>
+      </c>
       <c r="K55" t="n">
         <v>0</v>
       </c>
@@ -6006,7 +6114,7 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6016,16 +6124,18 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H56" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>6</v>
+      </c>
       <c r="K56" t="n">
         <v>0</v>
       </c>
@@ -6106,7 +6216,7 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -6116,16 +6226,18 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H57" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>6</v>
+      </c>
       <c r="K57" t="n">
         <v>0</v>
       </c>
@@ -6206,7 +6318,7 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6216,16 +6328,18 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H58" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>6</v>
+      </c>
       <c r="K58" t="n">
         <v>0</v>
       </c>
@@ -6306,7 +6420,7 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -6316,16 +6430,18 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H59" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>6</v>
+      </c>
       <c r="K59" t="n">
         <v>0</v>
       </c>
@@ -6406,7 +6522,7 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -6416,16 +6532,18 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H60" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>6</v>
+      </c>
       <c r="K60" t="n">
         <v>0</v>
       </c>
@@ -6506,7 +6624,7 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -6516,16 +6634,18 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H61" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>6</v>
+      </c>
       <c r="K61" t="n">
         <v>0</v>
       </c>
@@ -6606,7 +6726,7 @@
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -6616,16 +6736,18 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H62" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>6</v>
+      </c>
       <c r="K62" t="n">
         <v>0</v>
       </c>
@@ -6706,7 +6828,7 @@
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -6716,16 +6838,18 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H63" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>6</v>
+      </c>
       <c r="K63" t="n">
         <v>0</v>
       </c>
@@ -6806,7 +6930,7 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -6816,16 +6940,18 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H64" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>6</v>
+      </c>
       <c r="K64" t="n">
         <v>0</v>
       </c>
@@ -6906,7 +7032,7 @@
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -6916,16 +7042,18 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H65" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>6</v>
+      </c>
       <c r="K65" t="n">
         <v>0</v>
       </c>
@@ -7006,7 +7134,7 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7016,16 +7144,18 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H66" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>6</v>
+      </c>
       <c r="K66" t="n">
         <v>0</v>
       </c>
@@ -7106,7 +7236,7 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7116,16 +7246,18 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H67" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>6</v>
+      </c>
       <c r="K67" t="n">
         <v>0</v>
       </c>
@@ -7206,7 +7338,7 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -7216,16 +7348,18 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H68" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>6</v>
+      </c>
       <c r="K68" t="n">
         <v>0</v>
       </c>
@@ -7306,7 +7440,7 @@
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -7316,16 +7450,18 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H69" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>6</v>
+      </c>
       <c r="K69" t="n">
         <v>0</v>
       </c>
@@ -7406,7 +7542,7 @@
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -7416,16 +7552,18 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H70" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>6</v>
+      </c>
       <c r="K70" t="n">
         <v>0</v>
       </c>
@@ -7506,7 +7644,7 @@
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -7516,16 +7654,18 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H71" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>6</v>
+      </c>
       <c r="K71" t="n">
         <v>0</v>
       </c>
@@ -7606,7 +7746,7 @@
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -7616,16 +7756,18 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H72" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>6</v>
+      </c>
       <c r="K72" t="n">
         <v>0</v>
       </c>
@@ -7706,7 +7848,7 @@
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -7716,16 +7858,18 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H73" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>6</v>
+      </c>
       <c r="K73" t="n">
         <v>0</v>
       </c>
@@ -7806,7 +7950,7 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -7816,16 +7960,18 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H74" t="n">
         <v>60</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="n">
         <v>0</v>
       </c>
@@ -7906,7 +8052,7 @@
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -7916,16 +8062,18 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H75" t="n">
         <v>60</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="n">
         <v>0</v>
       </c>
@@ -8006,7 +8154,7 @@
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8016,16 +8164,18 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H76" t="n">
         <v>60</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
-      </c>
-      <c r="J76" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="n">
         <v>0</v>
       </c>
@@ -8106,7 +8256,7 @@
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -8116,16 +8266,18 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H77" t="n">
         <v>60</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="n">
         <v>0</v>
       </c>
@@ -8206,7 +8358,7 @@
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -8216,16 +8368,18 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H78" t="n">
         <v>60</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="n">
         <v>0</v>
       </c>
@@ -8306,7 +8460,7 @@
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -8316,16 +8470,18 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H79" t="n">
         <v>60</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="n">
         <v>0</v>
       </c>
@@ -8406,7 +8562,7 @@
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -8416,16 +8572,18 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H80" t="n">
         <v>60</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
-      </c>
-      <c r="J80" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="n">
         <v>0</v>
       </c>
@@ -8506,7 +8664,7 @@
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -8516,16 +8674,18 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H81" t="n">
         <v>60</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
-      </c>
-      <c r="J81" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="n">
         <v>0</v>
       </c>
@@ -8606,7 +8766,7 @@
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -8616,16 +8776,18 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H82" t="n">
         <v>60</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="n">
         <v>0</v>
       </c>
@@ -8706,7 +8868,7 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -8716,16 +8878,18 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H83" t="n">
         <v>60</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="n">
         <v>0</v>
       </c>
@@ -8806,7 +8970,7 @@
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -8816,16 +8980,18 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H84" t="n">
         <v>60</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="n">
         <v>0</v>
       </c>
@@ -8906,7 +9072,7 @@
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -8916,16 +9082,18 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H85" t="n">
         <v>60</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
-      </c>
-      <c r="J85" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="n">
         <v>0</v>
       </c>
@@ -9006,7 +9174,7 @@
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -9016,16 +9184,18 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H86" t="n">
         <v>60</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
-      </c>
-      <c r="J86" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="n">
         <v>0</v>
       </c>
@@ -9106,7 +9276,7 @@
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -9116,16 +9286,18 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H87" t="n">
         <v>60</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="n">
         <v>0</v>
       </c>
@@ -9206,7 +9378,7 @@
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -9216,16 +9388,18 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H88" t="n">
         <v>60</v>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="n">
         <v>0</v>
       </c>
@@ -9306,7 +9480,7 @@
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -9316,16 +9490,18 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H89" t="n">
         <v>60</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
-      </c>
-      <c r="J89" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="n">
         <v>0</v>
       </c>
@@ -9406,7 +9582,7 @@
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
@@ -9416,16 +9592,18 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H90" t="n">
         <v>60</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="n">
         <v>0</v>
       </c>
@@ -9506,7 +9684,7 @@
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -9516,16 +9694,18 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H91" t="n">
         <v>60</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="n">
         <v>0</v>
       </c>
@@ -9606,7 +9786,7 @@
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -9616,16 +9796,18 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H92" t="n">
         <v>60</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
-      </c>
-      <c r="J92" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="n">
         <v>0</v>
       </c>
@@ -9706,7 +9888,7 @@
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
@@ -9716,16 +9898,18 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H93" t="n">
         <v>60</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="n">
         <v>0</v>
       </c>
@@ -9806,7 +9990,7 @@
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -9816,16 +10000,18 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H94" t="n">
         <v>60</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="n">
         <v>0</v>
       </c>
@@ -9906,7 +10092,7 @@
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -9916,16 +10102,18 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H95" t="n">
         <v>60</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="n">
         <v>0</v>
       </c>
@@ -10006,7 +10194,7 @@
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -10016,16 +10204,18 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H96" t="n">
         <v>60</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="n">
         <v>0</v>
       </c>
@@ -10106,7 +10296,7 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -10116,16 +10306,18 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H97" t="n">
         <v>60</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="n">
         <v>0</v>
       </c>
@@ -10206,7 +10398,7 @@
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -10216,16 +10408,18 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H98" t="n">
         <v>60</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="n">
         <v>0</v>
       </c>
@@ -10306,7 +10500,7 @@
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -10316,16 +10510,18 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H99" t="n">
         <v>60</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="n">
         <v>0</v>
       </c>
@@ -10406,7 +10602,7 @@
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -10416,16 +10612,18 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H100" t="n">
         <v>60</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="n">
         <v>0</v>
       </c>
@@ -10506,7 +10704,7 @@
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -10516,16 +10714,18 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H101" t="n">
         <v>60</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
-      </c>
-      <c r="J101" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="n">
         <v>0</v>
       </c>
@@ -10606,7 +10806,7 @@
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
@@ -10616,16 +10816,18 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H102" t="n">
         <v>60</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
-      </c>
-      <c r="J102" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="n">
         <v>0</v>
       </c>
@@ -10706,7 +10908,7 @@
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -10716,16 +10918,18 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H103" t="n">
         <v>60</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="n">
         <v>0</v>
       </c>
@@ -10806,7 +11010,7 @@
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -10816,16 +11020,18 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H104" t="n">
         <v>60</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="n">
         <v>0</v>
       </c>
@@ -10906,7 +11112,7 @@
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -10916,16 +11122,18 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H105" t="n">
         <v>60</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="n">
         <v>0</v>
       </c>
@@ -11006,7 +11214,7 @@
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -11016,16 +11224,18 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H106" t="n">
         <v>60</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="n">
         <v>0</v>
       </c>
@@ -11106,7 +11316,7 @@
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -11116,16 +11326,18 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H107" t="n">
         <v>60</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="n">
         <v>0</v>
       </c>
@@ -11206,7 +11418,7 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -11216,16 +11428,18 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H108" t="n">
         <v>60</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="n">
         <v>0</v>
       </c>
@@ -11306,7 +11520,7 @@
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -11316,16 +11530,18 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H109" t="n">
         <v>60</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="n">
         <v>0</v>
       </c>
@@ -11406,7 +11622,7 @@
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -11416,16 +11632,18 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H110" t="n">
         <v>60</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="n">
         <v>0</v>
       </c>
@@ -11506,7 +11724,7 @@
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -11516,16 +11734,18 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H111" t="n">
         <v>60</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="n">
         <v>0</v>
       </c>
@@ -11606,7 +11826,7 @@
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ANALOG_INPUT_OUTPUT</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -11616,16 +11836,18 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H112" t="n">
         <v>60</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="n">
         <v>0</v>
       </c>
@@ -11695,19 +11917,15 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>LECTURA</t>
+          <t>188</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>COMPRESOR_1</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -11715,7 +11933,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>ANALOGICAS</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -11727,9 +11945,11 @@
         <v>60</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="n">
         <v>0</v>
       </c>
@@ -11749,7 +11969,11 @@
       <c r="Q113" t="n">
         <v>0</v>
       </c>
-      <c r="R113" t="inlineStr"/>
+      <c r="R113" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S113" t="inlineStr"/>
       <c r="T113" t="inlineStr">
         <is>
@@ -11795,19 +12019,15 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Proceso</t>
+          <t>189</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
+          <t>COMPRESOR_2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>STATUS</t>
@@ -11815,7 +12035,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ANALOGICAS</t>
+          <t>ESTADO_EQUIPOS</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -11827,9 +12047,11 @@
         <v>60</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="n">
         <v>0</v>
       </c>
@@ -11849,7 +12071,11 @@
       <c r="Q114" t="n">
         <v>0</v>
       </c>
-      <c r="R114" t="inlineStr"/>
+      <c r="R114" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="S114" t="inlineStr"/>
       <c r="T114" t="inlineStr">
         <is>
@@ -11895,12 +12121,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>190</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>COMPRESOR_1</t>
+          <t>SECADOR_1</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
@@ -11923,9 +12149,11 @@
         <v>60</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="n">
         <v>0</v>
       </c>
@@ -11995,12 +12223,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>191</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>COMPRESOR_2</t>
+          <t>SECADOR_2</t>
         </is>
       </c>
       <c r="D116" t="inlineStr"/>
@@ -12023,9 +12251,11 @@
         <v>60</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="n">
         <v>0</v>
       </c>
@@ -12095,12 +12325,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>192</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>SECADOR_1</t>
+          <t>ENFRIADORA_1</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
@@ -12123,9 +12353,11 @@
         <v>60</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="n">
         <v>0</v>
       </c>
@@ -12195,12 +12427,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>193</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SECADOR_2</t>
+          <t>ENFRIADORA_2</t>
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
@@ -12223,9 +12455,11 @@
         <v>60</v>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="n">
         <v>0</v>
       </c>
@@ -12295,12 +12529,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>194</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>ENFRIADORA_1</t>
+          <t>BOMBA_1</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
@@ -12323,9 +12557,11 @@
         <v>60</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="n">
         <v>0</v>
       </c>
@@ -12395,12 +12631,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>195</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>ENFRIADORA_2</t>
+          <t>BOMBA_2</t>
         </is>
       </c>
       <c r="D120" t="inlineStr"/>
@@ -12423,9 +12659,11 @@
         <v>60</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="n">
         <v>0</v>
       </c>
@@ -12495,12 +12733,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>196</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BOMBA_1</t>
+          <t>BOMBA_3</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
@@ -12523,9 +12761,11 @@
         <v>60</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="n">
         <v>0</v>
       </c>
@@ -12595,12 +12835,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>197</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BOMBA_2</t>
+          <t>BOMBA_4</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
@@ -12623,9 +12863,11 @@
         <v>60</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="n">
         <v>0</v>
       </c>
@@ -12695,12 +12937,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>198</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>BOMBA_3</t>
+          <t>BOMBA_5</t>
         </is>
       </c>
       <c r="D123" t="inlineStr"/>
@@ -12723,9 +12965,11 @@
         <v>60</v>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="n">
         <v>0</v>
       </c>
@@ -12795,12 +13039,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>199</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>BOMBA_4</t>
+          <t>BOMBA_6</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
@@ -12823,9 +13067,11 @@
         <v>60</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="n">
         <v>0</v>
       </c>
@@ -12895,12 +13141,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>200</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>BOMBA_5</t>
+          <t>BOMBA_7</t>
         </is>
       </c>
       <c r="D125" t="inlineStr"/>
@@ -12923,9 +13169,11 @@
         <v>60</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="n">
         <v>0</v>
       </c>
@@ -12995,12 +13243,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>201</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>BOMBA_6</t>
+          <t>VENTILACION_AMBIENTE</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
@@ -13023,9 +13271,11 @@
         <v>60</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="n">
         <v>0</v>
       </c>
@@ -13095,12 +13345,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>202</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>BOMBA_7</t>
+          <t>ENFRIADORA_3</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
@@ -13123,9 +13373,11 @@
         <v>60</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="n">
         <v>0</v>
       </c>
@@ -13195,12 +13447,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>203</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>VENTILACION_AMBIENTE</t>
+          <t>ENFRIADORA_4</t>
         </is>
       </c>
       <c r="D128" t="inlineStr"/>
@@ -13223,9 +13475,11 @@
         <v>60</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="n">
         <v>0</v>
       </c>
@@ -13295,12 +13549,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>204</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>ENFRIADORA_3</t>
+          <t>COMPUERTA_1</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
@@ -13323,9 +13577,11 @@
         <v>60</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="n">
         <v>0</v>
       </c>
@@ -13395,12 +13651,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>205</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ENFRIADORA_4</t>
+          <t>COMPUERTA_2</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
@@ -13423,9 +13679,11 @@
         <v>60</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="n">
         <v>0</v>
       </c>
@@ -13495,12 +13753,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>206</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>COMPUERTA_1</t>
+          <t>COMPUERTA_3</t>
         </is>
       </c>
       <c r="D131" t="inlineStr"/>
@@ -13523,9 +13781,11 @@
         <v>60</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="n">
         <v>0</v>
       </c>
@@ -13595,12 +13855,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>207</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>COMPUERTA_2</t>
+          <t>COMPUERTA_4</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
@@ -13623,9 +13883,11 @@
         <v>60</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="n">
         <v>0</v>
       </c>
@@ -13695,12 +13957,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>208</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>COMPUERTA_3</t>
+          <t>INTERCAMBIADOR_1_1</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
@@ -13723,9 +13985,11 @@
         <v>60</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="n">
         <v>0</v>
       </c>
@@ -13795,12 +14059,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>209</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>COMPUERTA_4</t>
+          <t>INTERCAMBIADOR_1_2</t>
         </is>
       </c>
       <c r="D134" t="inlineStr"/>
@@ -13823,9 +14087,11 @@
         <v>60</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="n">
         <v>0</v>
       </c>
@@ -13895,12 +14161,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>210</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_1</t>
+          <t>INTERCAMBIADOR_2_1</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
@@ -13923,9 +14189,11 @@
         <v>60</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="n">
         <v>0</v>
       </c>
@@ -13995,12 +14263,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>211</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_1_2</t>
+          <t>INTERCAMBIADOR_2_2</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
@@ -14023,9 +14291,11 @@
         <v>60</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="n">
         <v>0</v>
       </c>
@@ -14095,12 +14365,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>212</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_1</t>
+          <t>VALVULA_SECADOR_1</t>
         </is>
       </c>
       <c r="D137" t="inlineStr"/>
@@ -14123,9 +14393,11 @@
         <v>60</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="n">
         <v>0</v>
       </c>
@@ -14195,12 +14467,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>INTERCAMBIADOR_2_2</t>
+          <t>VALVULA_SECADOR_2</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
@@ -14223,9 +14495,11 @@
         <v>60</v>
       </c>
       <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="n">
         <v>0</v>
       </c>
@@ -14295,12 +14569,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_1</t>
+          <t>VALVULA_LLENADO</t>
         </is>
       </c>
       <c r="D139" t="inlineStr"/>
@@ -14323,9 +14597,11 @@
         <v>60</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="n">
         <v>0</v>
       </c>
@@ -14395,12 +14671,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>215</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>VALVULA_SECADOR_2</t>
+          <t>RESERVA_1</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
@@ -14423,9 +14699,11 @@
         <v>60</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="n">
         <v>0</v>
       </c>
@@ -14495,12 +14773,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>216</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>VALVULA_LLENADO</t>
+          <t>RESERVA_2</t>
         </is>
       </c>
       <c r="D141" t="inlineStr"/>
@@ -14523,9 +14801,11 @@
         <v>60</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="n">
         <v>0</v>
       </c>
@@ -14595,12 +14875,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>RESERVA_1</t>
+          <t>RESERVA_3</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
@@ -14623,9 +14903,11 @@
         <v>60</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
       <c r="K142" t="n">
         <v>0</v>
       </c>
@@ -14695,12 +14977,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>218</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>RESERVA_2</t>
+          <t>RESERVA_4</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
@@ -14723,9 +15005,11 @@
         <v>60</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="J143" t="n">
+        <v>0</v>
+      </c>
       <c r="K143" t="n">
         <v>0</v>
       </c>
@@ -14795,37 +15079,43 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>RESERVA_3</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>AL_1</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>AL 1 - 24VDC_EXT_OK</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>ESTADO_EQUIPOS</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H144" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
       <c r="K144" t="n">
         <v>0</v>
       </c>
@@ -14847,7 +15137,7 @@
       </c>
       <c r="R144" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BIT 1</t>
         </is>
       </c>
       <c r="S144" t="inlineStr"/>
@@ -14895,37 +15185,43 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>219</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>RESERVA_4</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>AL_2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>AL 2 - PROT_230_AUX</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>ESTADO_EQUIPOS</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H145" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
       <c r="K145" t="n">
         <v>0</v>
       </c>
@@ -14947,7 +15243,7 @@
       </c>
       <c r="R145" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>BIT 2</t>
         </is>
       </c>
       <c r="S145" t="inlineStr"/>
@@ -14993,35 +15289,45 @@
       <c r="A146" t="n">
         <v>145</v>
       </c>
-      <c r="B146" t="inlineStr"/>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
       <c r="C146" t="inlineStr">
         <is>
+          <t>AL_3</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>AL 3 - PROT_SKID_1_1</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>ALARM</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
           <t>ALARMAS_1</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>ESTADO_EQUIPOS</t>
-        </is>
-      </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H146" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
       <c r="K146" t="n">
         <v>0</v>
       </c>
@@ -15043,8 +15349,7 @@
       </c>
       <c r="R146" t="inlineStr">
         <is>
-          <t>DINT(4
-BYTES)</t>
+          <t>BIT 3</t>
         </is>
       </c>
       <c r="S146" t="inlineStr"/>
@@ -15097,36 +15402,38 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>AL_1</t>
+          <t>AL_4</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>AL 1 - 24VDC_EXT_OK</t>
+          <t>AL 4 - PROT_SKID_1_2</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H147" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
       <c r="K147" t="n">
         <v>0</v>
       </c>
@@ -15148,7 +15455,7 @@
       </c>
       <c r="R147" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>BIT 4</t>
         </is>
       </c>
       <c r="S147" t="inlineStr"/>
@@ -15201,36 +15508,38 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>AL_2</t>
+          <t>AL_5</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>AL 2 - PROT_230_AUX</t>
+          <t>AL 5 - PROT_SKID_A2</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H148" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="n">
         <v>0</v>
       </c>
@@ -15252,7 +15561,7 @@
       </c>
       <c r="R148" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>BIT 5</t>
         </is>
       </c>
       <c r="S148" t="inlineStr"/>
@@ -15305,36 +15614,38 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>AL_3</t>
+          <t>AL_6</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>AL 3 - PROT_SKID_1_1</t>
+          <t>AL 6 - PROT_SKID_4_1</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H149" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="n">
         <v>0</v>
       </c>
@@ -15356,7 +15667,7 @@
       </c>
       <c r="R149" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>BIT 6</t>
         </is>
       </c>
       <c r="S149" t="inlineStr"/>
@@ -15409,36 +15720,38 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>AL_4</t>
+          <t>AL_7</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>AL 4 - PROT_SKID_1_2</t>
+          <t>AL 7 - PROT_SEPARADOR</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H150" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="n">
         <v>0</v>
       </c>
@@ -15460,7 +15773,7 @@
       </c>
       <c r="R150" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>BIT 7</t>
         </is>
       </c>
       <c r="S150" t="inlineStr"/>
@@ -15513,36 +15826,38 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>AL_5</t>
+          <t>AL_8</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>AL 5 - PROT_SKID_A2</t>
+          <t>AL 8 - PROT_PC1</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H151" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="n">
         <v>0</v>
       </c>
@@ -15564,7 +15879,7 @@
       </c>
       <c r="R151" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>BIT 8</t>
         </is>
       </c>
       <c r="S151" t="inlineStr"/>
@@ -15617,36 +15932,38 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>AL_6</t>
+          <t>AL_9</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>AL 6 - PROT_SKID_4_1</t>
+          <t>AL 9 - PROT_PC2</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H152" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="n">
         <v>0</v>
       </c>
@@ -15668,7 +15985,7 @@
       </c>
       <c r="R152" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>BIT 9</t>
         </is>
       </c>
       <c r="S152" t="inlineStr"/>
@@ -15721,36 +16038,38 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>AL_7</t>
+          <t>AL_10</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>AL 7 - PROT_SEPARADOR</t>
+          <t>AL 10 - RESERVA</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H153" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="n">
         <v>0</v>
       </c>
@@ -15772,7 +16091,7 @@
       </c>
       <c r="R153" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>BIT 10</t>
         </is>
       </c>
       <c r="S153" t="inlineStr"/>
@@ -15825,36 +16144,38 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>AL_8</t>
+          <t>AL_11</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>AL 8 - PROT_PC1</t>
+          <t>AL 11 - ALARMA DEFECTO ACTIVO COMPRESOR_1</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H154" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="n">
         <v>0</v>
       </c>
@@ -15876,7 +16197,7 @@
       </c>
       <c r="R154" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>BIT 11</t>
         </is>
       </c>
       <c r="S154" t="inlineStr"/>
@@ -15929,36 +16250,38 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>AL_9</t>
+          <t>AL_12</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>AL 9 - PROT_PC2</t>
+          <t>AL 12 - ALARMA DEFECTO ACTIVO COMPRESOR_2</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H155" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="n">
         <v>0</v>
       </c>
@@ -15980,7 +16303,7 @@
       </c>
       <c r="R155" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>BIT 12</t>
         </is>
       </c>
       <c r="S155" t="inlineStr"/>
@@ -16033,36 +16356,38 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>AL_10</t>
+          <t>AL_13</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>AL 10 - RESERVA</t>
+          <t>AL 13 - ALARMA DEFECTO ACTIVO SECADOR_1</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H156" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="n">
         <v>0</v>
       </c>
@@ -16084,7 +16409,7 @@
       </c>
       <c r="R156" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>BIT 13</t>
         </is>
       </c>
       <c r="S156" t="inlineStr"/>
@@ -16137,36 +16462,38 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>AL_11</t>
+          <t>AL_14</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>AL 11 - ALARMA DEFECTO ACTIVO COMPRESOR_1</t>
+          <t>AL 14 - ALARMA DEFECTO ACTIVO SECADOR_2</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H157" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="n">
         <v>0</v>
       </c>
@@ -16188,7 +16515,7 @@
       </c>
       <c r="R157" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>BIT 14</t>
         </is>
       </c>
       <c r="S157" t="inlineStr"/>
@@ -16241,36 +16568,38 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>AL_12</t>
+          <t>AL_15</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>AL 12 - ALARMA DEFECTO ACTIVO COMPRESOR_2</t>
+          <t>AL 15 - ALARMA DEFECTO ACTIVO ENFRIADORA_1</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H158" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="n">
         <v>0</v>
       </c>
@@ -16292,7 +16621,7 @@
       </c>
       <c r="R158" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>BIT 15</t>
         </is>
       </c>
       <c r="S158" t="inlineStr"/>
@@ -16340,41 +16669,43 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>AL_13</t>
+          <t>AL_17</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>AL 13 - ALARMA DEFECTO ACTIVO SECADOR_1</t>
+          <t>AL 17 - ALARMA DEFECTO ACTIVO BOMBA_1</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H159" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="n">
         <v>0</v>
       </c>
@@ -16396,7 +16727,7 @@
       </c>
       <c r="R159" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>BIT 17</t>
         </is>
       </c>
       <c r="S159" t="inlineStr"/>
@@ -16444,41 +16775,43 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>AL_14</t>
+          <t>AL_18</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>AL 14 - ALARMA DEFECTO ACTIVO SECADOR_2</t>
+          <t>AL 18 - ALARMA DEFECTO ACTIVO BOMBA_2</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H160" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="n">
         <v>0</v>
       </c>
@@ -16500,7 +16833,7 @@
       </c>
       <c r="R160" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>BIT 18</t>
         </is>
       </c>
       <c r="S160" t="inlineStr"/>
@@ -16548,41 +16881,43 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>220</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>AL_15</t>
+          <t>AL_19</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>AL 15 - ALARMA DEFECTO ACTIVO ENFRIADORA_1</t>
+          <t>AL 19 - ALARMA DEFECTO ACTIVO BOMBA_3</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>AL_0</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H161" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="n">
         <v>0</v>
       </c>
@@ -16604,7 +16939,7 @@
       </c>
       <c r="R161" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>BIT 19</t>
         </is>
       </c>
       <c r="S161" t="inlineStr"/>
@@ -16657,36 +16992,38 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>AL_17</t>
+          <t>AL_20</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>AL 17 - ALARMA DEFECTO ACTIVO BOMBA_1</t>
+          <t>AL 20 - ALARMA DEFECTO ACTIVO BOMBA_4</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H162" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="n">
         <v>0</v>
       </c>
@@ -16708,7 +17045,7 @@
       </c>
       <c r="R162" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>BIT 20</t>
         </is>
       </c>
       <c r="S162" t="inlineStr"/>
@@ -16761,36 +17098,38 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>AL_18</t>
+          <t>AL_21</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>AL 18 - ALARMA DEFECTO ACTIVO BOMBA_2</t>
+          <t>AL 21 - ALARMA DEFECTO ACTIVO BOMBA_5</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H163" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="n">
         <v>0</v>
       </c>
@@ -16812,7 +17151,7 @@
       </c>
       <c r="R163" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>BIT 21</t>
         </is>
       </c>
       <c r="S163" t="inlineStr"/>
@@ -16865,36 +17204,38 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>AL_19</t>
+          <t>AL_22</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>AL 19 - ALARMA DEFECTO ACTIVO BOMBA_3</t>
+          <t>AL 22 - ALARMA DEFECTO ACTIVO BOMBA_6</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H164" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="n">
         <v>0</v>
       </c>
@@ -16916,7 +17257,7 @@
       </c>
       <c r="R164" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>BIT 22</t>
         </is>
       </c>
       <c r="S164" t="inlineStr"/>
@@ -16969,36 +17310,38 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>AL_20</t>
+          <t>AL_23</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>AL 20 - ALARMA DEFECTO ACTIVO BOMBA_4</t>
+          <t>AL 23 - ALARMA DEFECTO ACTIVO BOMBA_7</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H165" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="n">
         <v>0</v>
       </c>
@@ -17020,7 +17363,7 @@
       </c>
       <c r="R165" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>BIT 23</t>
         </is>
       </c>
       <c r="S165" t="inlineStr"/>
@@ -17073,36 +17416,38 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>AL_21</t>
+          <t>AL_24</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>AL 21 - ALARMA DEFECTO ACTIVO BOMBA_5</t>
+          <t>AL 24 - ALARMA DEFECTO ACTIVO VENTILACION_AMBIENTE</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H166" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="n">
         <v>0</v>
       </c>
@@ -17124,7 +17469,7 @@
       </c>
       <c r="R166" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>BIT 24</t>
         </is>
       </c>
       <c r="S166" t="inlineStr"/>
@@ -17177,36 +17522,38 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>AL_22</t>
+          <t>AL_25</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>AL 22 - ALARMA DEFECTO ACTIVO BOMBA_6</t>
+          <t>AL 25 - ALARMA DEFECTO ACTIVO ENFRIADORA_3</t>
         </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H167" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
       <c r="K167" t="n">
         <v>0</v>
       </c>
@@ -17228,7 +17575,7 @@
       </c>
       <c r="R167" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>BIT 25</t>
         </is>
       </c>
       <c r="S167" t="inlineStr"/>
@@ -17281,36 +17628,38 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>AL_23</t>
+          <t>AL_26</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>AL 23 - ALARMA DEFECTO ACTIVO BOMBA_7</t>
+          <t>AL 26 - ALARMA DEFECTO ACTIVO ENFRIADORA_4</t>
         </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H168" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
       <c r="K168" t="n">
         <v>0</v>
       </c>
@@ -17332,7 +17681,7 @@
       </c>
       <c r="R168" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>BIT 26</t>
         </is>
       </c>
       <c r="S168" t="inlineStr"/>
@@ -17385,36 +17734,38 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>AL_24</t>
+          <t>AL_27</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>AL 24 - ALARMA DEFECTO ACTIVO VENTILACION_AMBIENTE</t>
+          <t>AL 27 - ALARMA DEFECTO ACTIVO COMPUERTA_1</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H169" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
       <c r="K169" t="n">
         <v>0</v>
       </c>
@@ -17436,7 +17787,7 @@
       </c>
       <c r="R169" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>BIT 27</t>
         </is>
       </c>
       <c r="S169" t="inlineStr"/>
@@ -17489,36 +17840,38 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>AL_25</t>
+          <t>AL_28</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>AL 25 - ALARMA DEFECTO ACTIVO ENFRIADORA_3</t>
+          <t>AL 28 - ALARMA DEFECTO ACTIVO COMPUERTA_2</t>
         </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H170" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
       <c r="K170" t="n">
         <v>0</v>
       </c>
@@ -17540,7 +17893,7 @@
       </c>
       <c r="R170" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>BIT 28</t>
         </is>
       </c>
       <c r="S170" t="inlineStr"/>
@@ -17593,36 +17946,38 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>AL_26</t>
+          <t>AL_29</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>AL 26 - ALARMA DEFECTO ACTIVO ENFRIADORA_4</t>
+          <t>AL 29 - ALARMA DEFECTO ACTIVO COMPUERTA_3</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H171" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
       <c r="K171" t="n">
         <v>0</v>
       </c>
@@ -17644,7 +17999,7 @@
       </c>
       <c r="R171" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>BIT 29</t>
         </is>
       </c>
       <c r="S171" t="inlineStr"/>
@@ -17697,36 +18052,38 @@
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>AL_27</t>
+          <t>AL_30</t>
         </is>
       </c>
       <c r="D172" t="inlineStr">
         <is>
-          <t>AL 27 - ALARMA DEFECTO ACTIVO COMPUERTA_1</t>
+          <t>AL 30 - ALARMA DEFECTO ACTIVO COMPUERTA_4</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H172" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
       <c r="K172" t="n">
         <v>0</v>
       </c>
@@ -17748,7 +18105,7 @@
       </c>
       <c r="R172" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>BIT 30</t>
         </is>
       </c>
       <c r="S172" t="inlineStr"/>
@@ -17801,36 +18158,38 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>AL_28</t>
+          <t>AL_31</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>AL 28 - ALARMA DEFECTO ACTIVO COMPUERTA_2</t>
+          <t>AL 31 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_1</t>
         </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_1</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H173" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
       <c r="K173" t="n">
         <v>0</v>
       </c>
@@ -17852,7 +18211,7 @@
       </c>
       <c r="R173" t="inlineStr">
         <is>
-          <t>BIT 28</t>
+          <t>BIT 31</t>
         </is>
       </c>
       <c r="S173" t="inlineStr"/>
@@ -17900,41 +18259,43 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>AL_29</t>
+          <t>AL_33</t>
         </is>
       </c>
       <c r="D174" t="inlineStr">
         <is>
-          <t>AL 29 - ALARMA DEFECTO ACTIVO COMPUERTA_3</t>
+          <t>AL 33 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_1</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H174" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
       <c r="K174" t="n">
         <v>0</v>
       </c>
@@ -17956,7 +18317,7 @@
       </c>
       <c r="R174" t="inlineStr">
         <is>
-          <t>BIT 29</t>
+          <t>BIT 1</t>
         </is>
       </c>
       <c r="S174" t="inlineStr"/>
@@ -18004,41 +18365,43 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>AL_30</t>
+          <t>AL_34</t>
         </is>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>AL 30 - ALARMA DEFECTO ACTIVO COMPUERTA_4</t>
+          <t>AL 34 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_2</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H175" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
       <c r="K175" t="n">
         <v>0</v>
       </c>
@@ -18060,7 +18423,7 @@
       </c>
       <c r="R175" t="inlineStr">
         <is>
-          <t>BIT 30</t>
+          <t>BIT 2</t>
         </is>
       </c>
       <c r="S175" t="inlineStr"/>
@@ -18108,41 +18471,43 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>221</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>AL_31</t>
+          <t>AL_35</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>AL 31 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_1_1</t>
+          <t>AL 35 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_1</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>AL_16</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H176" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
       <c r="K176" t="n">
         <v>0</v>
       </c>
@@ -18164,7 +18529,7 @@
       </c>
       <c r="R176" t="inlineStr">
         <is>
-          <t>BIT 31</t>
+          <t>BIT 3</t>
         </is>
       </c>
       <c r="S176" t="inlineStr"/>
@@ -18210,35 +18575,45 @@
       <c r="A177" t="n">
         <v>176</v>
       </c>
-      <c r="B177" t="inlineStr"/>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
       <c r="C177" t="inlineStr">
         <is>
+          <t>AL_36</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>AL 36 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_2</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>ALARM</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
           <t>ALARMAS_2</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F177" t="inlineStr">
-        <is>
-          <t>AL_16</t>
-        </is>
-      </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H177" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
       <c r="K177" t="n">
         <v>0</v>
       </c>
@@ -18260,8 +18635,7 @@
       </c>
       <c r="R177" t="inlineStr">
         <is>
-          <t>DINT(4
-BYTES)</t>
+          <t>BIT 4</t>
         </is>
       </c>
       <c r="S177" t="inlineStr"/>
@@ -18314,36 +18688,38 @@
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>AL_33</t>
+          <t>AL_37</t>
         </is>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>AL 33 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_1</t>
+          <t>AL 37 - ALARMA DEFECTO ACTIVO VALVULA_LLENADO</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H178" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
-      </c>
-      <c r="J178" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
       <c r="K178" t="n">
         <v>0</v>
       </c>
@@ -18365,7 +18741,7 @@
       </c>
       <c r="R178" t="inlineStr">
         <is>
-          <t>BIT 1</t>
+          <t>BIT 5</t>
         </is>
       </c>
       <c r="S178" t="inlineStr"/>
@@ -18418,36 +18794,34 @@
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>AL_34</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>AL 34 - ALARMA DEFECTO ACTIVO INTERCAMBIADOR_2_2</t>
-        </is>
-      </c>
+          <t>AL_38</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H179" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
-      </c>
-      <c r="J179" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
       <c r="K179" t="n">
         <v>0</v>
       </c>
@@ -18469,7 +18843,7 @@
       </c>
       <c r="R179" t="inlineStr">
         <is>
-          <t>BIT 2</t>
+          <t>BIT 6</t>
         </is>
       </c>
       <c r="S179" t="inlineStr"/>
@@ -18522,36 +18896,34 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>AL_35</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>AL 35 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_1</t>
-        </is>
-      </c>
+          <t>AL_39</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H180" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
-      </c>
-      <c r="J180" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
       <c r="K180" t="n">
         <v>0</v>
       </c>
@@ -18573,7 +18945,7 @@
       </c>
       <c r="R180" t="inlineStr">
         <is>
-          <t>BIT 3</t>
+          <t>BIT 7</t>
         </is>
       </c>
       <c r="S180" t="inlineStr"/>
@@ -18626,36 +18998,34 @@
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>AL_36</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>AL 36 - ALARMA DEFECTO ACTIVO VALVULA_SECADOR_2</t>
-        </is>
-      </c>
+          <t>AL_40</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H181" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
-      </c>
-      <c r="J181" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
       <c r="K181" t="n">
         <v>0</v>
       </c>
@@ -18677,7 +19047,7 @@
       </c>
       <c r="R181" t="inlineStr">
         <is>
-          <t>BIT 4</t>
+          <t>BIT 8</t>
         </is>
       </c>
       <c r="S181" t="inlineStr"/>
@@ -18730,36 +19100,34 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>AL_37</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>AL 37 - ALARMA DEFECTO ACTIVO VALVULA_LLENADO</t>
-        </is>
-      </c>
+          <t>AL_41</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H182" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
-      </c>
-      <c r="J182" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
       <c r="K182" t="n">
         <v>0</v>
       </c>
@@ -18781,7 +19149,7 @@
       </c>
       <c r="R182" t="inlineStr">
         <is>
-          <t>BIT 5</t>
+          <t>BIT 9</t>
         </is>
       </c>
       <c r="S182" t="inlineStr"/>
@@ -18834,32 +19202,34 @@
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>AL_38</t>
+          <t>AL_42</t>
         </is>
       </c>
       <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H183" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
-      </c>
-      <c r="J183" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
       <c r="K183" t="n">
         <v>0</v>
       </c>
@@ -18881,7 +19251,7 @@
       </c>
       <c r="R183" t="inlineStr">
         <is>
-          <t>BIT 6</t>
+          <t>BIT 10</t>
         </is>
       </c>
       <c r="S183" t="inlineStr"/>
@@ -18934,32 +19304,34 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>AL_39</t>
+          <t>AL_43</t>
         </is>
       </c>
       <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H184" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
-      </c>
-      <c r="J184" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
       <c r="K184" t="n">
         <v>0</v>
       </c>
@@ -18981,7 +19353,7 @@
       </c>
       <c r="R184" t="inlineStr">
         <is>
-          <t>BIT 7</t>
+          <t>BIT 11</t>
         </is>
       </c>
       <c r="S184" t="inlineStr"/>
@@ -19034,32 +19406,34 @@
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>AL_40</t>
+          <t>AL_44</t>
         </is>
       </c>
       <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H185" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
-      </c>
-      <c r="J185" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
       <c r="K185" t="n">
         <v>0</v>
       </c>
@@ -19081,7 +19455,7 @@
       </c>
       <c r="R185" t="inlineStr">
         <is>
-          <t>BIT 8</t>
+          <t>BIT 12</t>
         </is>
       </c>
       <c r="S185" t="inlineStr"/>
@@ -19134,32 +19508,34 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>AL_41</t>
+          <t>AL_45</t>
         </is>
       </c>
       <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H186" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
-      </c>
-      <c r="J186" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
       <c r="K186" t="n">
         <v>0</v>
       </c>
@@ -19181,7 +19557,7 @@
       </c>
       <c r="R186" t="inlineStr">
         <is>
-          <t>BIT 9</t>
+          <t>BIT 13</t>
         </is>
       </c>
       <c r="S186" t="inlineStr"/>
@@ -19234,32 +19610,34 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>AL_42</t>
+          <t>AL_46</t>
         </is>
       </c>
       <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H187" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I187" t="n">
-        <v>0</v>
-      </c>
-      <c r="J187" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
       <c r="K187" t="n">
         <v>0</v>
       </c>
@@ -19281,7 +19659,7 @@
       </c>
       <c r="R187" t="inlineStr">
         <is>
-          <t>BIT 10</t>
+          <t>BIT 14</t>
         </is>
       </c>
       <c r="S187" t="inlineStr"/>
@@ -19334,32 +19712,34 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>AL_43</t>
+          <t>AL_47</t>
         </is>
       </c>
       <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H188" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
       <c r="K188" t="n">
         <v>0</v>
       </c>
@@ -19381,7 +19761,7 @@
       </c>
       <c r="R188" t="inlineStr">
         <is>
-          <t>BIT 11</t>
+          <t>BIT 15</t>
         </is>
       </c>
       <c r="S188" t="inlineStr"/>
@@ -19429,37 +19809,39 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>AL_44</t>
+          <t>AL_49</t>
         </is>
       </c>
       <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H189" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
       <c r="K189" t="n">
         <v>0</v>
       </c>
@@ -19481,7 +19863,7 @@
       </c>
       <c r="R189" t="inlineStr">
         <is>
-          <t>BIT 12</t>
+          <t>BIT 17</t>
         </is>
       </c>
       <c r="S189" t="inlineStr"/>
@@ -19529,37 +19911,39 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>AL_45</t>
+          <t>AL_50</t>
         </is>
       </c>
       <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H190" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
       <c r="K190" t="n">
         <v>0</v>
       </c>
@@ -19581,7 +19965,7 @@
       </c>
       <c r="R190" t="inlineStr">
         <is>
-          <t>BIT 13</t>
+          <t>BIT 18</t>
         </is>
       </c>
       <c r="S190" t="inlineStr"/>
@@ -19629,37 +20013,39 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>AL_46</t>
+          <t>AL_51</t>
         </is>
       </c>
       <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H191" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
       <c r="K191" t="n">
         <v>0</v>
       </c>
@@ -19681,7 +20067,7 @@
       </c>
       <c r="R191" t="inlineStr">
         <is>
-          <t>BIT 14</t>
+          <t>BIT 19</t>
         </is>
       </c>
       <c r="S191" t="inlineStr"/>
@@ -19729,37 +20115,39 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>AL_47</t>
+          <t>AL_52</t>
         </is>
       </c>
       <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>AL_32</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H192" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
       <c r="K192" t="n">
         <v>0</v>
       </c>
@@ -19781,7 +20169,7 @@
       </c>
       <c r="R192" t="inlineStr">
         <is>
-          <t>BIT 15</t>
+          <t>BIT 20</t>
         </is>
       </c>
       <c r="S192" t="inlineStr"/>
@@ -19834,32 +20222,34 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>AL_49</t>
+          <t>AL_53</t>
         </is>
       </c>
       <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H193" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
       <c r="K193" t="n">
         <v>0</v>
       </c>
@@ -19881,7 +20271,7 @@
       </c>
       <c r="R193" t="inlineStr">
         <is>
-          <t>BIT 17</t>
+          <t>BIT 21</t>
         </is>
       </c>
       <c r="S193" t="inlineStr"/>
@@ -19934,32 +20324,34 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>AL_50</t>
+          <t>AL_54</t>
         </is>
       </c>
       <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H194" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
       <c r="K194" t="n">
         <v>0</v>
       </c>
@@ -19981,7 +20373,7 @@
       </c>
       <c r="R194" t="inlineStr">
         <is>
-          <t>BIT 18</t>
+          <t>BIT 22</t>
         </is>
       </c>
       <c r="S194" t="inlineStr"/>
@@ -20034,32 +20426,34 @@
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>AL_51</t>
+          <t>AL_55</t>
         </is>
       </c>
       <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H195" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
       <c r="K195" t="n">
         <v>0</v>
       </c>
@@ -20081,7 +20475,7 @@
       </c>
       <c r="R195" t="inlineStr">
         <is>
-          <t>BIT 19</t>
+          <t>BIT 23</t>
         </is>
       </c>
       <c r="S195" t="inlineStr"/>
@@ -20134,32 +20528,34 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>AL_52</t>
+          <t>AL_56</t>
         </is>
       </c>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H196" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
       <c r="K196" t="n">
         <v>0</v>
       </c>
@@ -20181,7 +20577,7 @@
       </c>
       <c r="R196" t="inlineStr">
         <is>
-          <t>BIT 20</t>
+          <t>BIT 24</t>
         </is>
       </c>
       <c r="S196" t="inlineStr"/>
@@ -20234,32 +20630,34 @@
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>AL_53</t>
+          <t>AL_57</t>
         </is>
       </c>
       <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H197" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
       <c r="K197" t="n">
         <v>0</v>
       </c>
@@ -20281,7 +20679,7 @@
       </c>
       <c r="R197" t="inlineStr">
         <is>
-          <t>BIT 21</t>
+          <t>BIT 25</t>
         </is>
       </c>
       <c r="S197" t="inlineStr"/>
@@ -20334,32 +20732,34 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>AL_54</t>
+          <t>AL_58</t>
         </is>
       </c>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H198" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
       <c r="K198" t="n">
         <v>0</v>
       </c>
@@ -20381,7 +20781,7 @@
       </c>
       <c r="R198" t="inlineStr">
         <is>
-          <t>BIT 22</t>
+          <t>BIT 26</t>
         </is>
       </c>
       <c r="S198" t="inlineStr"/>
@@ -20434,32 +20834,34 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>AL_55</t>
+          <t>AL_59</t>
         </is>
       </c>
       <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H199" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
       <c r="K199" t="n">
         <v>0</v>
       </c>
@@ -20481,7 +20883,7 @@
       </c>
       <c r="R199" t="inlineStr">
         <is>
-          <t>BIT 23</t>
+          <t>BIT 27</t>
         </is>
       </c>
       <c r="S199" t="inlineStr"/>
@@ -20534,32 +20936,34 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>AL_56</t>
+          <t>AL_60</t>
         </is>
       </c>
       <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H200" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
       <c r="K200" t="n">
         <v>0</v>
       </c>
@@ -20581,7 +20985,7 @@
       </c>
       <c r="R200" t="inlineStr">
         <is>
-          <t>BIT 24</t>
+          <t>BIT 28</t>
         </is>
       </c>
       <c r="S200" t="inlineStr"/>
@@ -20634,32 +21038,34 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>AL_57</t>
+          <t>AL_61</t>
         </is>
       </c>
       <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H201" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
       <c r="K201" t="n">
         <v>0</v>
       </c>
@@ -20681,7 +21087,7 @@
       </c>
       <c r="R201" t="inlineStr">
         <is>
-          <t>BIT 25</t>
+          <t>BIT 29</t>
         </is>
       </c>
       <c r="S201" t="inlineStr"/>
@@ -20734,32 +21140,34 @@
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>AL_58</t>
+          <t>AL_62</t>
         </is>
       </c>
       <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>ALARM</t>
         </is>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H202" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
-      </c>
-      <c r="J202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
       <c r="K202" t="n">
         <v>0</v>
       </c>
@@ -20781,7 +21189,7 @@
       </c>
       <c r="R202" t="inlineStr">
         <is>
-          <t>BIT 26</t>
+          <t>BIT 30</t>
         </is>
       </c>
       <c r="S202" t="inlineStr"/>
@@ -20834,32 +21242,34 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>AL_59</t>
+          <t>RESET ALARMAS</t>
         </is>
       </c>
       <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
-          <t>STATUS</t>
+          <t>COMMAND</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>AL_48</t>
+          <t>ALARMAS_2</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>basic</t>
+          <t>simple</t>
         </is>
       </c>
       <c r="H203" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>6</v>
+      </c>
       <c r="K203" t="n">
         <v>0</v>
       </c>
@@ -20881,7 +21291,7 @@
       </c>
       <c r="R203" t="inlineStr">
         <is>
-          <t>BIT 27</t>
+          <t>BIT 31</t>
         </is>
       </c>
       <c r="S203" t="inlineStr"/>
@@ -20922,406 +21332,6 @@
         <v>0</v>
       </c>
       <c r="AD203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" t="n">
-        <v>203</v>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr">
-        <is>
-          <t>AL_60</t>
-        </is>
-      </c>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F204" t="inlineStr">
-        <is>
-          <t>AL_48</t>
-        </is>
-      </c>
-      <c r="G204" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H204" t="n">
-        <v>60</v>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>0</v>
-      </c>
-      <c r="L204" t="n">
-        <v>0</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-      <c r="N204" t="n">
-        <v>0</v>
-      </c>
-      <c r="O204" t="n">
-        <v>0</v>
-      </c>
-      <c r="P204" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q204" t="n">
-        <v>0</v>
-      </c>
-      <c r="R204" t="inlineStr">
-        <is>
-          <t>BIT 28</t>
-        </is>
-      </c>
-      <c r="S204" t="inlineStr"/>
-      <c r="T204" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U204" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V204" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W204" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X204" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y204" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z204" t="inlineStr"/>
-      <c r="AA204" t="inlineStr"/>
-      <c r="AB204" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC204" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" t="n">
-        <v>204</v>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>AL_61</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F205" t="inlineStr">
-        <is>
-          <t>AL_48</t>
-        </is>
-      </c>
-      <c r="G205" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H205" t="n">
-        <v>60</v>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>0</v>
-      </c>
-      <c r="L205" t="n">
-        <v>0</v>
-      </c>
-      <c r="M205" t="inlineStr"/>
-      <c r="N205" t="n">
-        <v>0</v>
-      </c>
-      <c r="O205" t="n">
-        <v>0</v>
-      </c>
-      <c r="P205" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q205" t="n">
-        <v>0</v>
-      </c>
-      <c r="R205" t="inlineStr">
-        <is>
-          <t>BIT 29</t>
-        </is>
-      </c>
-      <c r="S205" t="inlineStr"/>
-      <c r="T205" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U205" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V205" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W205" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X205" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y205" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z205" t="inlineStr"/>
-      <c r="AA205" t="inlineStr"/>
-      <c r="AB205" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC205" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" t="n">
-        <v>205</v>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>AL_62</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F206" t="inlineStr">
-        <is>
-          <t>AL_48</t>
-        </is>
-      </c>
-      <c r="G206" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H206" t="n">
-        <v>60</v>
-      </c>
-      <c r="I206" t="n">
-        <v>0</v>
-      </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>0</v>
-      </c>
-      <c r="L206" t="n">
-        <v>0</v>
-      </c>
-      <c r="M206" t="inlineStr"/>
-      <c r="N206" t="n">
-        <v>0</v>
-      </c>
-      <c r="O206" t="n">
-        <v>0</v>
-      </c>
-      <c r="P206" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q206" t="n">
-        <v>0</v>
-      </c>
-      <c r="R206" t="inlineStr">
-        <is>
-          <t>BIT 30</t>
-        </is>
-      </c>
-      <c r="S206" t="inlineStr"/>
-      <c r="T206" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U206" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V206" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W206" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X206" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y206" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z206" t="inlineStr"/>
-      <c r="AA206" t="inlineStr"/>
-      <c r="AB206" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC206" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" t="n">
-        <v>206</v>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>222</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr">
-        <is>
-          <t>RESET ALARMAS</t>
-        </is>
-      </c>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>STATUS</t>
-        </is>
-      </c>
-      <c r="F207" t="inlineStr">
-        <is>
-          <t>AL_48</t>
-        </is>
-      </c>
-      <c r="G207" t="inlineStr">
-        <is>
-          <t>basic</t>
-        </is>
-      </c>
-      <c r="H207" t="n">
-        <v>60</v>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>0</v>
-      </c>
-      <c r="L207" t="n">
-        <v>0</v>
-      </c>
-      <c r="M207" t="inlineStr"/>
-      <c r="N207" t="n">
-        <v>0</v>
-      </c>
-      <c r="O207" t="n">
-        <v>0</v>
-      </c>
-      <c r="P207" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q207" t="n">
-        <v>0</v>
-      </c>
-      <c r="R207" t="inlineStr">
-        <is>
-          <t>BIT 31</t>
-        </is>
-      </c>
-      <c r="S207" t="inlineStr"/>
-      <c r="T207" t="inlineStr">
-        <is>
-          <t>{"severity":"none"}</t>
-        </is>
-      </c>
-      <c r="U207" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="V207" t="inlineStr">
-        <is>
-          <t>{"_type":"l10n","default_lang":"en_US","translations":{"en_US":{"name":null,"_type":"languages","description":null}}}</t>
-        </is>
-      </c>
-      <c r="W207" t="inlineStr">
-        <is>
-          <t>[]</t>
-        </is>
-      </c>
-      <c r="X207" t="inlineStr">
-        <is>
-          <t>modbus</t>
-        </is>
-      </c>
-      <c r="Y207" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z207" t="inlineStr"/>
-      <c r="AA207" t="inlineStr"/>
-      <c r="AB207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC207" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD207" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
